--- a/teaching/traditional_assets/database/data/jersey/jersey_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/jersey/jersey_oil_gas_production_and_exploration.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="wse_sen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -590,26 +592,23 @@
           <t>Oil/Gas (Production and Exploration)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.338</v>
-      </c>
       <c r="G2">
-        <v>-0.1681875</v>
+        <v>0.376984126984127</v>
       </c>
       <c r="H2">
-        <v>-0.1681875</v>
+        <v>0.376984126984127</v>
       </c>
       <c r="I2">
-        <v>-0.4943566521711001</v>
+        <v>-0.06984126984126986</v>
       </c>
       <c r="J2">
-        <v>-0.4943566521711001</v>
+        <v>-0.06984126984126986</v>
       </c>
       <c r="K2">
-        <v>-11.55</v>
+        <v>-15.51</v>
       </c>
       <c r="L2">
-        <v>-0.721875</v>
+        <v>-0.6154761904761905</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +632,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>22.596</v>
+        <v>15.35</v>
       </c>
       <c r="V2">
-        <v>0.2784816366773478</v>
+        <v>0.1226038338658147</v>
       </c>
       <c r="W2">
-        <v>-0.5326923076923077</v>
+        <v>-1.01</v>
       </c>
       <c r="X2">
-        <v>0.09720524770632144</v>
+        <v>0.05371380824800273</v>
       </c>
       <c r="Y2">
-        <v>-0.6298975553986291</v>
+        <v>-1.063713808248003</v>
       </c>
       <c r="Z2">
-        <v>0.331994756938265</v>
+        <v>0.5004567660960401</v>
       </c>
       <c r="AA2">
-        <v>-0.7975172655951974</v>
+        <v>-0.3524752475247525</v>
       </c>
       <c r="AB2">
-        <v>0.09748434703088897</v>
+        <v>0.05358043159694063</v>
       </c>
       <c r="AC2">
-        <v>-0.8841668343838445</v>
+        <v>-0.4060556791216931</v>
       </c>
       <c r="AD2">
-        <v>32.09</v>
+        <v>32.491</v>
       </c>
       <c r="AE2">
-        <v>1.033532173688007</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>33.12353217368801</v>
+        <v>32.491</v>
       </c>
       <c r="AG2">
-        <v>10.52753217368801</v>
+        <v>17.141</v>
       </c>
       <c r="AH2">
-        <v>0.2898871717298051</v>
+        <v>0.2060421964474827</v>
       </c>
       <c r="AI2">
-        <v>0.4477149333168534</v>
+        <v>0.5041194085429241</v>
       </c>
       <c r="AJ2">
-        <v>0.1148447211793687</v>
+        <v>0.12042208499308</v>
       </c>
       <c r="AK2">
-        <v>0.2048654941845685</v>
+        <v>0.3490967597401274</v>
       </c>
       <c r="AL2">
-        <v>3.991</v>
+        <v>3.668</v>
       </c>
       <c r="AM2">
-        <v>3.847</v>
+        <v>3.578</v>
       </c>
       <c r="AN2">
-        <v>16.48176682074987</v>
+        <v>2.435607196401799</v>
       </c>
       <c r="AO2">
-        <v>-2.087196191430719</v>
+        <v>-0.479825517993457</v>
       </c>
       <c r="AP2">
-        <v>5.407052991108374</v>
+        <v>1.284932533733133</v>
       </c>
       <c r="AQ2">
-        <v>-2.165323628801664</v>
+        <v>-0.4918949133594188</v>
       </c>
     </row>
     <row r="3">
@@ -718,26 +717,23 @@
           <t>Oil/Gas (Production and Exploration)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.338</v>
-      </c>
       <c r="G3">
-        <v>0.0549375</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="H3">
-        <v>0.0549375</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="I3">
-        <v>-0.2309098050685977</v>
+        <v>0.1158730158730159</v>
       </c>
       <c r="J3">
-        <v>-0.2309098050685977</v>
+        <v>0.1158730158730159</v>
       </c>
       <c r="K3">
-        <v>-8.31</v>
+        <v>-10.1</v>
       </c>
       <c r="L3">
-        <v>-0.519375</v>
+        <v>-0.4007936507936508</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +757,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="V3">
-        <v>0.06677966101694915</v>
+        <v>0.02311756935270806</v>
       </c>
       <c r="W3">
-        <v>-0.5326923076923077</v>
+        <v>-1.01</v>
       </c>
       <c r="X3">
-        <v>0.1594146494529632</v>
+        <v>0.07188752525296417</v>
       </c>
       <c r="Y3">
-        <v>-0.6921069571452709</v>
+        <v>-1.081887525252964</v>
       </c>
       <c r="Z3">
-        <v>0.3607033176801438</v>
+        <v>0.6489827453000258</v>
       </c>
       <c r="AA3">
-        <v>-0.0832899327731185</v>
+        <v>0.0751995879474633</v>
       </c>
       <c r="AB3">
-        <v>0.09748434703088897</v>
+        <v>0.05816387441233199</v>
       </c>
       <c r="AC3">
-        <v>-0.1807742798040075</v>
+        <v>0.01703571353513132</v>
       </c>
       <c r="AD3">
-        <v>30.8</v>
+        <v>32.1</v>
       </c>
       <c r="AE3">
-        <v>1.027784405487816</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>31.82778440548782</v>
+        <v>32.1</v>
       </c>
       <c r="AG3">
-        <v>29.85778440548782</v>
+        <v>30.35</v>
       </c>
       <c r="AH3">
-        <v>0.518978220296505</v>
+        <v>0.297773654916512</v>
       </c>
       <c r="AI3">
-        <v>0.7609244634366051</v>
+        <v>0.9602153754113073</v>
       </c>
       <c r="AJ3">
-        <v>0.5030137951497963</v>
+        <v>0.2861857614332862</v>
       </c>
       <c r="AK3">
-        <v>0.7491079810591993</v>
+        <v>0.9580176767676768</v>
       </c>
       <c r="AL3">
-        <v>3.94</v>
+        <v>3.36</v>
       </c>
       <c r="AM3">
-        <v>3.91</v>
+        <v>3.36</v>
       </c>
       <c r="AN3">
-        <v>6.208425720620842</v>
+        <v>1.783333333333333</v>
       </c>
       <c r="AO3">
-        <v>-1.043147208121828</v>
+        <v>0.8690476190476191</v>
       </c>
       <c r="AP3">
-        <v>6.018501190382548</v>
+        <v>1.686111111111111</v>
       </c>
       <c r="AQ3">
-        <v>-1.051150895140665</v>
+        <v>0.8690476190476191</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +843,7 @@
         </is>
       </c>
       <c r="K4">
-        <v>-1.97</v>
+        <v>-3.49</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -871,70 +867,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>19.7</v>
+        <v>11</v>
       </c>
       <c r="V4">
-        <v>0.4539170506912442</v>
+        <v>0.2964959568733154</v>
       </c>
       <c r="W4">
-        <v>-0.05987841945288754</v>
+        <v>-0.1171140939597315</v>
       </c>
       <c r="X4">
-        <v>0.08665523260975841</v>
+        <v>0.05371380824800273</v>
       </c>
       <c r="Y4">
-        <v>-0.146533652062646</v>
+        <v>-0.1708279022077343</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.7975172655951974</v>
+        <v>-0.3524752475247525</v>
       </c>
       <c r="AB4">
-        <v>0.08664956878864703</v>
+        <v>0.05358043159694063</v>
       </c>
       <c r="AC4">
-        <v>-0.8841668343838445</v>
+        <v>-0.4060556791216931</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.391</v>
       </c>
       <c r="AE4">
-        <v>0.005747768200190038</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.005747768200190038</v>
+        <v>0.391</v>
       </c>
       <c r="AG4">
-        <v>-19.69425223179981</v>
+        <v>-10.609</v>
       </c>
       <c r="AH4">
-        <v>0.0001324195180528822</v>
+        <v>0.01042916966738684</v>
       </c>
       <c r="AI4">
-        <v>0.0001928409327251418</v>
+        <v>0.01475972971952739</v>
       </c>
       <c r="AJ4">
-        <v>-0.8307796246030442</v>
+        <v>-0.4004756332339285</v>
       </c>
       <c r="AK4">
-        <v>-1.948816919196401</v>
+        <v>-0.6848492673165063</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AM4">
-        <v>-0.113</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="AN4">
-        <v>-0</v>
+        <v>-0.1104519774011299</v>
+      </c>
+      <c r="AO4">
+        <v>-1780</v>
       </c>
       <c r="AP4">
-        <v>6.534257542070274</v>
+        <v>2.996892655367231</v>
       </c>
       <c r="AQ4">
-        <v>26.90265486725664</v>
+        <v>40.45454545454546</v>
       </c>
     </row>
     <row r="5">
@@ -954,7 +953,7 @@
         </is>
       </c>
       <c r="K5">
-        <v>-1.27</v>
+        <v>-1.92</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -978,67 +977,8791 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.926</v>
+        <v>2.6</v>
       </c>
       <c r="V5">
-        <v>0.112378640776699</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="W5">
-        <v>-0.7134831460674157</v>
+        <v>-1.811320754716981</v>
       </c>
       <c r="X5">
-        <v>0.09720524770632144</v>
+        <v>0.05325060910620953</v>
       </c>
       <c r="Y5">
-        <v>-0.8106883937737371</v>
+        <v>-1.86457136382319</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>-39.33333333333329</v>
+        <v>-0.7865168539325844</v>
       </c>
       <c r="AB5">
-        <v>0.09928686982870011</v>
+        <v>0.05325060910620953</v>
       </c>
       <c r="AC5">
-        <v>-39.432620203162</v>
+        <v>-0.8397674630387939</v>
       </c>
       <c r="AD5">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.364</v>
+        <v>-2.6</v>
       </c>
       <c r="AH5">
-        <v>0.1353620146904512</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.548936170212766</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.04230590423059042</v>
+        <v>-0.2653061224489796</v>
       </c>
       <c r="AK5">
-        <v>0.2556179775280899</v>
+        <v>-1.347150259067357</v>
       </c>
       <c r="AL5">
-        <v>0.051</v>
+        <v>0.306</v>
       </c>
       <c r="AM5">
+        <v>0.306</v>
+      </c>
+      <c r="AN5">
+        <v>-0</v>
+      </c>
+      <c r="AO5">
+        <v>-3.660130718954249</v>
+      </c>
+      <c r="AP5">
+        <v>2.321428571428571</v>
+      </c>
+      <c r="AQ5">
+        <v>-3.660130718954249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Serinus Energy plc (WSE:SEN)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WSE:SEN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Oil/Gas (Production and Exploration)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jersey</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.297773654916512</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>75.7</v>
+      </c>
+      <c r="H2">
+        <v>112.5920824662</v>
+      </c>
+      <c r="I2">
+        <v>106.05</v>
+      </c>
+      <c r="J2">
+        <v>110.8420824662</v>
+      </c>
+      <c r="K2">
+        <v>32.1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.058163874412332</v>
+      </c>
+      <c r="N2">
+        <v>0.0532506091062095</v>
+      </c>
+      <c r="O2">
+        <v>0.0258</v>
+      </c>
+      <c r="P2">
+        <v>0.0162</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0718875252529642</v>
+      </c>
+      <c r="T2">
+        <v>0.0532506091062095</v>
+      </c>
+      <c r="U2">
+        <v>1.32600689095263</v>
+      </c>
+      <c r="V2">
+        <v>0.931156972589185</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>75.7</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>18</v>
+      </c>
+      <c r="AH2">
+        <v>14.9</v>
+      </c>
+      <c r="AI2">
+        <v>5.239999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>32.1</v>
+      </c>
+      <c r="AK2">
+        <v>32.1</v>
+      </c>
+      <c r="AL2">
+        <v>3.36</v>
+      </c>
+      <c r="AM2">
+        <v>32.1</v>
+      </c>
+      <c r="AN2">
+        <v>1.75</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05325060910620952</v>
+      </c>
+      <c r="C2">
+        <v>112.5920824661998</v>
+      </c>
+      <c r="D2">
+        <v>110.8420824661998</v>
+      </c>
+      <c r="E2">
+        <v>-32.1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.75</v>
+      </c>
+      <c r="H2">
+        <v>75.7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>14.9</v>
+      </c>
+      <c r="L2">
+        <v>3.1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3.1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3.1</v>
+      </c>
+      <c r="Q2">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05325060910620952</v>
+      </c>
+      <c r="T2">
+        <v>0.9311569725891848</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.0162</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05331960910620953</v>
+      </c>
+      <c r="C3">
+        <v>111.443787916895</v>
+      </c>
+      <c r="D3">
+        <v>110.771787916895</v>
+      </c>
+      <c r="E3">
+        <v>-31.022</v>
+      </c>
+      <c r="F3">
+        <v>1.078</v>
+      </c>
+      <c r="G3">
+        <v>1.75</v>
+      </c>
+      <c r="H3">
+        <v>75.7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>14.9</v>
+      </c>
+      <c r="L3">
+        <v>3.1</v>
+      </c>
+      <c r="M3">
+        <v>0.0174636</v>
+      </c>
+      <c r="N3">
+        <v>3.0825364</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>3.0825364</v>
+      </c>
+      <c r="Q3">
+        <v>17.9825364</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.0536945546527369</v>
+      </c>
+      <c r="T3">
+        <v>0.9405625985749343</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.0162</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>177.512082273987</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05338860910620952</v>
+      </c>
+      <c r="C4">
+        <v>110.2955824707868</v>
+      </c>
+      <c r="D4">
+        <v>110.7015824707868</v>
+      </c>
+      <c r="E4">
+        <v>-29.944</v>
+      </c>
+      <c r="F4">
+        <v>2.156</v>
+      </c>
+      <c r="G4">
+        <v>1.75</v>
+      </c>
+      <c r="H4">
+        <v>75.7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>14.9</v>
+      </c>
+      <c r="L4">
+        <v>3.1</v>
+      </c>
+      <c r="M4">
+        <v>0.0349272</v>
+      </c>
+      <c r="N4">
+        <v>3.0650728</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>3.0650728</v>
+      </c>
+      <c r="Q4">
+        <v>17.9650728</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.0541475603124587</v>
+      </c>
+      <c r="T4">
+        <v>0.9501601761114131</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.0162</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>88.75604113699352</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05345760910620951</v>
+      </c>
+      <c r="C5">
+        <v>109.1474659585657</v>
+      </c>
+      <c r="D5">
+        <v>110.6314659585657</v>
+      </c>
+      <c r="E5">
+        <v>-28.866</v>
+      </c>
+      <c r="F5">
+        <v>3.234</v>
+      </c>
+      <c r="G5">
+        <v>1.75</v>
+      </c>
+      <c r="H5">
+        <v>75.7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>14.9</v>
+      </c>
+      <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
+        <v>0.0523908</v>
+      </c>
+      <c r="N5">
+        <v>3.0476092</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>3.0476092</v>
+      </c>
+      <c r="Q5">
+        <v>17.9476092</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05460990629506135</v>
+      </c>
+      <c r="T5">
+        <v>0.9599556418445203</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.0162</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>59.170694091329</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05352660910620952</v>
+      </c>
+      <c r="C6">
+        <v>107.9994382113511</v>
+      </c>
+      <c r="D6">
+        <v>110.5614382113511</v>
+      </c>
+      <c r="E6">
+        <v>-27.788</v>
+      </c>
+      <c r="F6">
+        <v>4.312</v>
+      </c>
+      <c r="G6">
+        <v>1.75</v>
+      </c>
+      <c r="H6">
+        <v>75.7</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>14.9</v>
+      </c>
+      <c r="L6">
+        <v>3.1</v>
+      </c>
+      <c r="M6">
+        <v>0.0698544</v>
+      </c>
+      <c r="N6">
+        <v>3.0301456</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>3.0301456</v>
+      </c>
+      <c r="Q6">
+        <v>17.9301456</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05508188448563492</v>
+      </c>
+      <c r="T6">
+        <v>0.9699551797804009</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.0162</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>44.37802056849675</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>0.05</v>
       </c>
-      <c r="AO5">
-        <v>-23.13725490196078</v>
-      </c>
-      <c r="AQ5">
-        <v>-23.6</v>
+      <c r="B7">
+        <v>0.05359560910620952</v>
+      </c>
+      <c r="C7">
+        <v>106.8514990606895</v>
+      </c>
+      <c r="D7">
+        <v>110.4914990606895</v>
+      </c>
+      <c r="E7">
+        <v>-26.71</v>
+      </c>
+      <c r="F7">
+        <v>5.390000000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.75</v>
+      </c>
+      <c r="H7">
+        <v>75.7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>14.9</v>
+      </c>
+      <c r="L7">
+        <v>3.1</v>
+      </c>
+      <c r="M7">
+        <v>0.08731800000000001</v>
+      </c>
+      <c r="N7">
+        <v>3.012682</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3.012682</v>
+      </c>
+      <c r="Q7">
+        <v>17.912682</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05556379905916792</v>
+      </c>
+      <c r="T7">
+        <v>0.9801652343044051</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.0162</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>35.50241645479741</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05366460910620952</v>
+      </c>
+      <c r="C8">
+        <v>105.7036483385535</v>
+      </c>
+      <c r="D8">
+        <v>110.4216483385535</v>
+      </c>
+      <c r="E8">
+        <v>-25.632</v>
+      </c>
+      <c r="F8">
+        <v>6.468000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.75</v>
+      </c>
+      <c r="H8">
+        <v>75.7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>14.9</v>
+      </c>
+      <c r="L8">
+        <v>3.1</v>
+      </c>
+      <c r="M8">
+        <v>0.1047816</v>
+      </c>
+      <c r="N8">
+        <v>2.9952184</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2.9952184</v>
+      </c>
+      <c r="Q8">
+        <v>17.8952184</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05605596713426544</v>
+      </c>
+      <c r="T8">
+        <v>0.9905925240310477</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.0162</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>29.5853470456645</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05373360910620952</v>
+      </c>
+      <c r="C9">
+        <v>104.5558858773404</v>
+      </c>
+      <c r="D9">
+        <v>110.3518858773404</v>
+      </c>
+      <c r="E9">
+        <v>-24.554</v>
+      </c>
+      <c r="F9">
+        <v>7.546000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1.75</v>
+      </c>
+      <c r="H9">
+        <v>75.7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>18</v>
+      </c>
+      <c r="K9">
+        <v>14.9</v>
+      </c>
+      <c r="L9">
+        <v>3.1</v>
+      </c>
+      <c r="M9">
+        <v>0.1222452</v>
+      </c>
+      <c r="N9">
+        <v>2.9777548</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2.9777548</v>
+      </c>
+      <c r="Q9">
+        <v>17.8777548</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05655871946904249</v>
+      </c>
+      <c r="T9">
+        <v>1.00124405654751</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.0162</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>25.35886889628386</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05380260910620953</v>
+      </c>
+      <c r="C10">
+        <v>103.4082115098707</v>
+      </c>
+      <c r="D10">
+        <v>110.2822115098707</v>
+      </c>
+      <c r="E10">
+        <v>-23.476</v>
+      </c>
+      <c r="F10">
+        <v>8.624000000000001</v>
+      </c>
+      <c r="G10">
+        <v>1.75</v>
+      </c>
+      <c r="H10">
+        <v>75.7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>14.9</v>
+      </c>
+      <c r="L10">
+        <v>3.1</v>
+      </c>
+      <c r="M10">
+        <v>0.1397088</v>
+      </c>
+      <c r="N10">
+        <v>2.960291199999999</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>2.960291199999999</v>
+      </c>
+      <c r="Q10">
+        <v>17.8602912</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05707240120240166</v>
+      </c>
+      <c r="T10">
+        <v>1.012127144118679</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.0162</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>22.18901028424838</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05387160910620952</v>
+      </c>
+      <c r="C11">
+        <v>102.2606250693868</v>
+      </c>
+      <c r="D11">
+        <v>110.2126250693868</v>
+      </c>
+      <c r="E11">
+        <v>-22.398</v>
+      </c>
+      <c r="F11">
+        <v>9.702</v>
+      </c>
+      <c r="G11">
+        <v>1.75</v>
+      </c>
+      <c r="H11">
+        <v>75.7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>14.9</v>
+      </c>
+      <c r="L11">
+        <v>3.1</v>
+      </c>
+      <c r="M11">
+        <v>0.1571724</v>
+      </c>
+      <c r="N11">
+        <v>2.9428276</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>2.9428276</v>
+      </c>
+      <c r="Q11">
+        <v>17.8428276</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05759737264418628</v>
+      </c>
+      <c r="T11">
+        <v>1.023249420427676</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.0162</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>19.72356469710967</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05394060910620953</v>
+      </c>
+      <c r="C12">
+        <v>101.1131263895519</v>
+      </c>
+      <c r="D12">
+        <v>110.1431263895519</v>
+      </c>
+      <c r="E12">
+        <v>-21.32</v>
+      </c>
+      <c r="F12">
+        <v>10.78</v>
+      </c>
+      <c r="G12">
+        <v>1.75</v>
+      </c>
+      <c r="H12">
+        <v>75.7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>14.9</v>
+      </c>
+      <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>0.174636</v>
+      </c>
+      <c r="N12">
+        <v>2.925364</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>2.925364</v>
+      </c>
+      <c r="Q12">
+        <v>17.825364</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05813401011801059</v>
+      </c>
+      <c r="T12">
+        <v>1.034618858432428</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0.0162</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>17.7512082273987</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05400960910620953</v>
+      </c>
+      <c r="C13">
+        <v>99.96571530444825</v>
+      </c>
+      <c r="D13">
+        <v>110.0737153044483</v>
+      </c>
+      <c r="E13">
+        <v>-20.242</v>
+      </c>
+      <c r="F13">
+        <v>11.858</v>
+      </c>
+      <c r="G13">
+        <v>1.75</v>
+      </c>
+      <c r="H13">
+        <v>75.7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>14.9</v>
+      </c>
+      <c r="L13">
+        <v>3.1</v>
+      </c>
+      <c r="M13">
+        <v>0.1920996</v>
+      </c>
+      <c r="N13">
+        <v>2.907900399999999</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>2.907900399999999</v>
+      </c>
+      <c r="Q13">
+        <v>17.8079004</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05868270686090958</v>
+      </c>
+      <c r="T13">
+        <v>1.046243789426051</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.0162</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>16.13746202490791</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05407860910620952</v>
+      </c>
+      <c r="C14">
+        <v>98.81839164857628</v>
+      </c>
+      <c r="D14">
+        <v>110.0043916485763</v>
+      </c>
+      <c r="E14">
+        <v>-19.164</v>
+      </c>
+      <c r="F14">
+        <v>12.936</v>
+      </c>
+      <c r="G14">
+        <v>1.75</v>
+      </c>
+      <c r="H14">
+        <v>75.7</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>14.9</v>
+      </c>
+      <c r="L14">
+        <v>3.1</v>
+      </c>
+      <c r="M14">
+        <v>0.2095632</v>
+      </c>
+      <c r="N14">
+        <v>2.8904368</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>2.8904368</v>
+      </c>
+      <c r="Q14">
+        <v>17.7904368</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.059243873984329</v>
+      </c>
+      <c r="T14">
+        <v>1.058132923396801</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.0162</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>14.79267352283225</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05435560910620953</v>
+      </c>
+      <c r="C15">
+        <v>97.46296901288277</v>
+      </c>
+      <c r="D15">
+        <v>109.7269690128828</v>
+      </c>
+      <c r="E15">
+        <v>-18.086</v>
+      </c>
+      <c r="F15">
+        <v>14.014</v>
+      </c>
+      <c r="G15">
+        <v>1.75</v>
+      </c>
+      <c r="H15">
+        <v>75.7</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>14.9</v>
+      </c>
+      <c r="L15">
+        <v>3.1</v>
+      </c>
+      <c r="M15">
+        <v>0.2494492</v>
+      </c>
+      <c r="N15">
+        <v>2.8505508</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2.8505508</v>
+      </c>
+      <c r="Q15">
+        <v>17.7505508</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05981794150139026</v>
+      </c>
+      <c r="T15">
+        <v>1.070295370792167</v>
+      </c>
+      <c r="U15">
+        <v>0.0178</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.0178</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>12.42738000362398</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05444060910620953</v>
+      </c>
+      <c r="C16">
+        <v>96.30011967658707</v>
+      </c>
+      <c r="D16">
+        <v>109.6421196765871</v>
+      </c>
+      <c r="E16">
+        <v>-17.008</v>
+      </c>
+      <c r="F16">
+        <v>15.092</v>
+      </c>
+      <c r="G16">
+        <v>1.75</v>
+      </c>
+      <c r="H16">
+        <v>75.7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>14.9</v>
+      </c>
+      <c r="L16">
+        <v>3.1</v>
+      </c>
+      <c r="M16">
+        <v>0.2686376</v>
+      </c>
+      <c r="N16">
+        <v>2.8313624</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>2.8313624</v>
+      </c>
+      <c r="Q16">
+        <v>17.7313624</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06040535942582503</v>
+      </c>
+      <c r="T16">
+        <v>1.082740665801378</v>
+      </c>
+      <c r="U16">
+        <v>0.0178</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.0178</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>11.53971000336513</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05452560910620952</v>
+      </c>
+      <c r="C17">
+        <v>95.13740146296976</v>
+      </c>
+      <c r="D17">
+        <v>109.5574014629698</v>
+      </c>
+      <c r="E17">
+        <v>-15.93</v>
+      </c>
+      <c r="F17">
+        <v>16.17</v>
+      </c>
+      <c r="G17">
+        <v>1.75</v>
+      </c>
+      <c r="H17">
+        <v>75.7</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>14.9</v>
+      </c>
+      <c r="L17">
+        <v>3.1</v>
+      </c>
+      <c r="M17">
+        <v>0.287826</v>
+      </c>
+      <c r="N17">
+        <v>2.812174</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2.812174</v>
+      </c>
+      <c r="Q17">
+        <v>17.712174</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06100659894848179</v>
+      </c>
+      <c r="T17">
+        <v>1.095478791281394</v>
+      </c>
+      <c r="U17">
+        <v>0.0178</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.0178</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>10.77039600314079</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05496260910620952</v>
+      </c>
+      <c r="C18">
+        <v>93.62590875974421</v>
+      </c>
+      <c r="D18">
+        <v>109.1239087597442</v>
+      </c>
+      <c r="E18">
+        <v>-14.852</v>
+      </c>
+      <c r="F18">
+        <v>17.248</v>
+      </c>
+      <c r="G18">
+        <v>1.75</v>
+      </c>
+      <c r="H18">
+        <v>75.7</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <v>14.9</v>
+      </c>
+      <c r="L18">
+        <v>3.1</v>
+      </c>
+      <c r="M18">
+        <v>0.34496</v>
+      </c>
+      <c r="N18">
+        <v>2.75504</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>2.75504</v>
+      </c>
+      <c r="Q18">
+        <v>17.65504</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06162215369786847</v>
+      </c>
+      <c r="T18">
+        <v>1.108520205463315</v>
+      </c>
+      <c r="U18">
+        <v>0.02</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.02</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>8.986549165120593</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05506960910620953</v>
+      </c>
+      <c r="C19">
+        <v>92.4422898270834</v>
+      </c>
+      <c r="D19">
+        <v>109.0182898270834</v>
+      </c>
+      <c r="E19">
+        <v>-13.774</v>
+      </c>
+      <c r="F19">
+        <v>18.326</v>
+      </c>
+      <c r="G19">
+        <v>1.75</v>
+      </c>
+      <c r="H19">
+        <v>75.7</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19">
+        <v>14.9</v>
+      </c>
+      <c r="L19">
+        <v>3.1</v>
+      </c>
+      <c r="M19">
+        <v>0.36652</v>
+      </c>
+      <c r="N19">
+        <v>2.73348</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>2.73348</v>
+      </c>
+      <c r="Q19">
+        <v>17.63348</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06225254109181871</v>
+      </c>
+      <c r="T19">
+        <v>1.121875870589379</v>
+      </c>
+      <c r="U19">
+        <v>0.02</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.02</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>8.457928625995851</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05517660910620953</v>
+      </c>
+      <c r="C20">
+        <v>91.25887514979519</v>
+      </c>
+      <c r="D20">
+        <v>108.9128751497952</v>
+      </c>
+      <c r="E20">
+        <v>-12.696</v>
+      </c>
+      <c r="F20">
+        <v>19.404</v>
+      </c>
+      <c r="G20">
+        <v>1.75</v>
+      </c>
+      <c r="H20">
+        <v>75.7</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>14.9</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
+        <v>0.3880799999999999</v>
+      </c>
+      <c r="N20">
+        <v>2.71192</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2.71192</v>
+      </c>
+      <c r="Q20">
+        <v>17.61192</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0628983037880604</v>
+      </c>
+      <c r="T20">
+        <v>1.135557283645347</v>
+      </c>
+      <c r="U20">
+        <v>0.02</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.02</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>7.988043702329417</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05549260910620953</v>
+      </c>
+      <c r="C21">
+        <v>89.87074369187684</v>
+      </c>
+      <c r="D21">
+        <v>108.6027436918768</v>
+      </c>
+      <c r="E21">
+        <v>-11.618</v>
+      </c>
+      <c r="F21">
+        <v>20.482</v>
+      </c>
+      <c r="G21">
+        <v>1.75</v>
+      </c>
+      <c r="H21">
+        <v>75.7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>14.9</v>
+      </c>
+      <c r="L21">
+        <v>3.1</v>
+      </c>
+      <c r="M21">
+        <v>0.4321702000000001</v>
+      </c>
+      <c r="N21">
+        <v>2.6678298</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2.6678298</v>
+      </c>
+      <c r="Q21">
+        <v>17.5678298</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06356001124223398</v>
+      </c>
+      <c r="T21">
+        <v>1.149576509369364</v>
+      </c>
+      <c r="U21">
+        <v>0.0211</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.0211</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>7.173099857417284</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05561060910620953</v>
+      </c>
+      <c r="C22">
+        <v>88.67738753641581</v>
+      </c>
+      <c r="D22">
+        <v>108.4873875364158</v>
+      </c>
+      <c r="E22">
+        <v>-10.54</v>
+      </c>
+      <c r="F22">
+        <v>21.56</v>
+      </c>
+      <c r="G22">
+        <v>1.75</v>
+      </c>
+      <c r="H22">
+        <v>75.7</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>14.9</v>
+      </c>
+      <c r="L22">
+        <v>3.1</v>
+      </c>
+      <c r="M22">
+        <v>0.454916</v>
+      </c>
+      <c r="N22">
+        <v>2.645084</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>2.645084</v>
+      </c>
+      <c r="Q22">
+        <v>17.545084</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06423826138276191</v>
+      </c>
+      <c r="T22">
+        <v>1.163946215736481</v>
+      </c>
+      <c r="U22">
+        <v>0.0211</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.0211</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>6.814444864546421</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05572860910620953</v>
+      </c>
+      <c r="C23">
+        <v>87.48427617998313</v>
+      </c>
+      <c r="D23">
+        <v>108.3722761799831</v>
+      </c>
+      <c r="E23">
+        <v>-9.462</v>
+      </c>
+      <c r="F23">
+        <v>22.638</v>
+      </c>
+      <c r="G23">
+        <v>1.75</v>
+      </c>
+      <c r="H23">
+        <v>75.7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>18</v>
+      </c>
+      <c r="K23">
+        <v>14.9</v>
+      </c>
+      <c r="L23">
+        <v>3.1</v>
+      </c>
+      <c r="M23">
+        <v>0.4776618</v>
+      </c>
+      <c r="N23">
+        <v>2.6223382</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2.6223382</v>
+      </c>
+      <c r="Q23">
+        <v>17.5223382</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06493368241292345</v>
+      </c>
+      <c r="T23">
+        <v>1.178679712138209</v>
+      </c>
+      <c r="U23">
+        <v>0.0211</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.0211</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>6.48994749004421</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05617660910620952</v>
+      </c>
+      <c r="C24">
+        <v>85.97145857927293</v>
+      </c>
+      <c r="D24">
+        <v>107.9374585792729</v>
+      </c>
+      <c r="E24">
+        <v>-8.384</v>
+      </c>
+      <c r="F24">
+        <v>23.716</v>
+      </c>
+      <c r="G24">
+        <v>1.75</v>
+      </c>
+      <c r="H24">
+        <v>75.7</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>14.9</v>
+      </c>
+      <c r="L24">
+        <v>3.1</v>
+      </c>
+      <c r="M24">
+        <v>0.5359815999999999</v>
+      </c>
+      <c r="N24">
+        <v>2.5640184</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>2.5640184</v>
+      </c>
+      <c r="Q24">
+        <v>17.4640184</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06564693475155066</v>
+      </c>
+      <c r="T24">
+        <v>1.193790990498955</v>
+      </c>
+      <c r="U24">
+        <v>0.0226</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0.0226</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>5.783780637245756</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05630960910620952</v>
+      </c>
+      <c r="C25">
+        <v>84.7650429932356</v>
+      </c>
+      <c r="D25">
+        <v>107.8090429932356</v>
+      </c>
+      <c r="E25">
+        <v>-7.305999999999997</v>
+      </c>
+      <c r="F25">
+        <v>24.794</v>
+      </c>
+      <c r="G25">
+        <v>1.75</v>
+      </c>
+      <c r="H25">
+        <v>75.7</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>18</v>
+      </c>
+      <c r="K25">
+        <v>14.9</v>
+      </c>
+      <c r="L25">
+        <v>3.1</v>
+      </c>
+      <c r="M25">
+        <v>0.5603444000000001</v>
+      </c>
+      <c r="N25">
+        <v>2.5396556</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>2.5396556</v>
+      </c>
+      <c r="Q25">
+        <v>17.4396556</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06637871312494743</v>
+      </c>
+      <c r="T25">
+        <v>1.209294769596344</v>
+      </c>
+      <c r="U25">
+        <v>0.0226</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0.0226</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>5.532311913887244</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05644260910620953</v>
+      </c>
+      <c r="C26">
+        <v>83.55893260183747</v>
+      </c>
+      <c r="D26">
+        <v>107.6809326018375</v>
+      </c>
+      <c r="E26">
+        <v>-6.227999999999998</v>
+      </c>
+      <c r="F26">
+        <v>25.872</v>
+      </c>
+      <c r="G26">
+        <v>1.75</v>
+      </c>
+      <c r="H26">
+        <v>75.7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>14.9</v>
+      </c>
+      <c r="L26">
+        <v>3.1</v>
+      </c>
+      <c r="M26">
+        <v>0.5847072000000001</v>
+      </c>
+      <c r="N26">
+        <v>2.5152928</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>2.5152928</v>
+      </c>
+      <c r="Q26">
+        <v>17.4152928</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.0671297488239599</v>
+      </c>
+      <c r="T26">
+        <v>1.225206542880506</v>
+      </c>
+      <c r="U26">
+        <v>0.0226</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0.0226</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>5.301798917475275</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05657560910620951</v>
+      </c>
+      <c r="C27">
+        <v>82.35312631837382</v>
+      </c>
+      <c r="D27">
+        <v>107.5531263183738</v>
+      </c>
+      <c r="E27">
+        <v>-5.149999999999999</v>
+      </c>
+      <c r="F27">
+        <v>26.95</v>
+      </c>
+      <c r="G27">
+        <v>1.75</v>
+      </c>
+      <c r="H27">
+        <v>75.7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>14.9</v>
+      </c>
+      <c r="L27">
+        <v>3.1</v>
+      </c>
+      <c r="M27">
+        <v>0.60907</v>
+      </c>
+      <c r="N27">
+        <v>2.49093</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>2.49093</v>
+      </c>
+      <c r="Q27">
+        <v>17.39093</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06790081214161268</v>
+      </c>
+      <c r="T27">
+        <v>1.241542630118913</v>
+      </c>
+      <c r="U27">
+        <v>0.0226</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.0226</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>5.089726960776265</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05670860910620952</v>
+      </c>
+      <c r="C28">
+        <v>81.147623061293</v>
+      </c>
+      <c r="D28">
+        <v>107.425623061293</v>
+      </c>
+      <c r="E28">
+        <v>-4.071999999999999</v>
+      </c>
+      <c r="F28">
+        <v>28.028</v>
+      </c>
+      <c r="G28">
+        <v>1.75</v>
+      </c>
+      <c r="H28">
+        <v>75.7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>14.9</v>
+      </c>
+      <c r="L28">
+        <v>3.1</v>
+      </c>
+      <c r="M28">
+        <v>0.6334328</v>
+      </c>
+      <c r="N28">
+        <v>2.4665672</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>2.4665672</v>
+      </c>
+      <c r="Q28">
+        <v>17.3665672</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06869271500839125</v>
+      </c>
+      <c r="T28">
+        <v>1.258320233228628</v>
+      </c>
+      <c r="U28">
+        <v>0.0226</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0.0226</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>4.89396823151564</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05684160910620953</v>
+      </c>
+      <c r="C29">
+        <v>79.94242175416608</v>
+      </c>
+      <c r="D29">
+        <v>107.2984217541661</v>
+      </c>
+      <c r="E29">
+        <v>-2.993999999999996</v>
+      </c>
+      <c r="F29">
+        <v>29.10600000000001</v>
+      </c>
+      <c r="G29">
+        <v>1.75</v>
+      </c>
+      <c r="H29">
+        <v>75.7</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>14.9</v>
+      </c>
+      <c r="L29">
+        <v>3.1</v>
+      </c>
+      <c r="M29">
+        <v>0.6577956</v>
+      </c>
+      <c r="N29">
+        <v>2.4422044</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>2.4422044</v>
+      </c>
+      <c r="Q29">
+        <v>17.3422044</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06950631384412265</v>
+      </c>
+      <c r="T29">
+        <v>1.275557496697514</v>
+      </c>
+      <c r="U29">
+        <v>0.0226</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0.0226</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>4.712710148866911</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05697460910620952</v>
+      </c>
+      <c r="C30">
+        <v>78.73752132565633</v>
+      </c>
+      <c r="D30">
+        <v>107.1715213256563</v>
+      </c>
+      <c r="E30">
+        <v>-1.915999999999997</v>
+      </c>
+      <c r="F30">
+        <v>30.184</v>
+      </c>
+      <c r="G30">
+        <v>1.75</v>
+      </c>
+      <c r="H30">
+        <v>75.7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>14.9</v>
+      </c>
+      <c r="L30">
+        <v>3.1</v>
+      </c>
+      <c r="M30">
+        <v>0.6821584000000001</v>
+      </c>
+      <c r="N30">
+        <v>2.4178416</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>2.4178416</v>
+      </c>
+      <c r="Q30">
+        <v>17.3178416</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07034251264751322</v>
+      </c>
+      <c r="T30">
+        <v>1.293273573040534</v>
+      </c>
+      <c r="U30">
+        <v>0.0226</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0.0226</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>4.544399072121664</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.08216360910620951</v>
+      </c>
+      <c r="C31">
+        <v>58.04713267086032</v>
+      </c>
+      <c r="D31">
+        <v>87.55913267086032</v>
+      </c>
+      <c r="E31">
+        <v>-0.838000000000001</v>
+      </c>
+      <c r="F31">
+        <v>31.262</v>
+      </c>
+      <c r="G31">
+        <v>1.75</v>
+      </c>
+      <c r="H31">
+        <v>75.7</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>14.9</v>
+      </c>
+      <c r="L31">
+        <v>3.1</v>
+      </c>
+      <c r="M31">
+        <v>3.407558</v>
+      </c>
+      <c r="N31">
+        <v>-0.3075580000000002</v>
+      </c>
+      <c r="O31">
+        <v>-0</v>
+      </c>
+      <c r="P31">
+        <v>-0.3075580000000002</v>
+      </c>
+      <c r="Q31">
+        <v>14.592442</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07120226634677397</v>
+      </c>
+      <c r="T31">
+        <v>1.311488693787584</v>
+      </c>
+      <c r="U31">
+        <v>0.109</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.109</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.9097424020368838</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.08316060910620951</v>
+      </c>
+      <c r="C32">
+        <v>56.33947804374091</v>
+      </c>
+      <c r="D32">
+        <v>86.92947804374091</v>
+      </c>
+      <c r="E32">
+        <v>0.240000000000002</v>
+      </c>
+      <c r="F32">
+        <v>32.34</v>
+      </c>
+      <c r="G32">
+        <v>1.75</v>
+      </c>
+      <c r="H32">
+        <v>75.7</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>18</v>
+      </c>
+      <c r="K32">
+        <v>14.9</v>
+      </c>
+      <c r="L32">
+        <v>3.1</v>
+      </c>
+      <c r="M32">
+        <v>3.52506</v>
+      </c>
+      <c r="N32">
+        <v>-0.4250600000000007</v>
+      </c>
+      <c r="O32">
+        <v>-0</v>
+      </c>
+      <c r="P32">
+        <v>-0.4250600000000007</v>
+      </c>
+      <c r="Q32">
+        <v>14.47494</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07208658443744217</v>
+      </c>
+      <c r="T32">
+        <v>1.330224246555978</v>
+      </c>
+      <c r="U32">
+        <v>0.109</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.109</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.879417655302321</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.08415760910620952</v>
+      </c>
+      <c r="C33">
+        <v>54.64081469457413</v>
+      </c>
+      <c r="D33">
+        <v>86.30881469457414</v>
+      </c>
+      <c r="E33">
+        <v>1.318000000000005</v>
+      </c>
+      <c r="F33">
+        <v>33.41800000000001</v>
+      </c>
+      <c r="G33">
+        <v>1.75</v>
+      </c>
+      <c r="H33">
+        <v>75.7</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>14.9</v>
+      </c>
+      <c r="L33">
+        <v>3.1</v>
+      </c>
+      <c r="M33">
+        <v>3.642562000000001</v>
+      </c>
+      <c r="N33">
+        <v>-0.5425620000000011</v>
+      </c>
+      <c r="O33">
+        <v>-0</v>
+      </c>
+      <c r="P33">
+        <v>-0.5425620000000011</v>
+      </c>
+      <c r="Q33">
+        <v>14.357438</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07299653493653555</v>
+      </c>
+      <c r="T33">
+        <v>1.349502858824906</v>
+      </c>
+      <c r="U33">
+        <v>0.109</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.109</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.8510493438409557</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.08515460910620953</v>
+      </c>
+      <c r="C34">
+        <v>52.95095139956766</v>
+      </c>
+      <c r="D34">
+        <v>85.69695139956767</v>
+      </c>
+      <c r="E34">
+        <v>2.396000000000001</v>
+      </c>
+      <c r="F34">
+        <v>34.496</v>
+      </c>
+      <c r="G34">
+        <v>1.75</v>
+      </c>
+      <c r="H34">
+        <v>75.7</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>18</v>
+      </c>
+      <c r="K34">
+        <v>14.9</v>
+      </c>
+      <c r="L34">
+        <v>3.1</v>
+      </c>
+      <c r="M34">
+        <v>3.760064</v>
+      </c>
+      <c r="N34">
+        <v>-0.6600640000000007</v>
+      </c>
+      <c r="O34">
+        <v>-0</v>
+      </c>
+      <c r="P34">
+        <v>-0.6600640000000007</v>
+      </c>
+      <c r="Q34">
+        <v>14.239936</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07393324868560225</v>
+      </c>
+      <c r="T34">
+        <v>1.369348489101742</v>
+      </c>
+      <c r="U34">
+        <v>0.109</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0.109</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.8244540518459259</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.09644760910620953</v>
+      </c>
+      <c r="C35">
+        <v>45.50302267152667</v>
+      </c>
+      <c r="D35">
+        <v>79.32702267152668</v>
+      </c>
+      <c r="E35">
+        <v>3.474000000000004</v>
+      </c>
+      <c r="F35">
+        <v>35.57400000000001</v>
+      </c>
+      <c r="G35">
+        <v>1.75</v>
+      </c>
+      <c r="H35">
+        <v>75.7</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>14.9</v>
+      </c>
+      <c r="L35">
+        <v>3.1</v>
+      </c>
+      <c r="M35">
+        <v>4.9874748</v>
+      </c>
+      <c r="N35">
+        <v>-1.887474800000001</v>
+      </c>
+      <c r="O35">
+        <v>-0</v>
+      </c>
+      <c r="P35">
+        <v>-1.887474800000001</v>
+      </c>
+      <c r="Q35">
+        <v>13.0125252</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.0748979240391187</v>
+      </c>
+      <c r="T35">
+        <v>1.389786526252515</v>
+      </c>
+      <c r="U35">
+        <v>0.1402</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.1402</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.621557025210433</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.09775660910620951</v>
+      </c>
+      <c r="C36">
+        <v>43.74738916365992</v>
+      </c>
+      <c r="D36">
+        <v>78.64938916365993</v>
+      </c>
+      <c r="E36">
+        <v>4.552000000000007</v>
+      </c>
+      <c r="F36">
+        <v>36.65200000000001</v>
+      </c>
+      <c r="G36">
+        <v>1.75</v>
+      </c>
+      <c r="H36">
+        <v>75.7</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>14.9</v>
+      </c>
+      <c r="L36">
+        <v>3.1</v>
+      </c>
+      <c r="M36">
+        <v>5.138610400000001</v>
+      </c>
+      <c r="N36">
+        <v>-2.038610400000001</v>
+      </c>
+      <c r="O36">
+        <v>-0</v>
+      </c>
+      <c r="P36">
+        <v>-2.038610400000001</v>
+      </c>
+      <c r="Q36">
+        <v>12.8613896</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07589183197910533</v>
+      </c>
+      <c r="T36">
+        <v>1.410843897862401</v>
+      </c>
+      <c r="U36">
+        <v>0.1402</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0.1402</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.6032759362336555</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.09906560910620953</v>
+      </c>
+      <c r="C37">
+        <v>42.00323466696357</v>
+      </c>
+      <c r="D37">
+        <v>77.98323466696358</v>
+      </c>
+      <c r="E37">
+        <v>5.63000000000001</v>
+      </c>
+      <c r="F37">
+        <v>37.73000000000001</v>
+      </c>
+      <c r="G37">
+        <v>1.75</v>
+      </c>
+      <c r="H37">
+        <v>75.7</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>18</v>
+      </c>
+      <c r="K37">
+        <v>14.9</v>
+      </c>
+      <c r="L37">
+        <v>3.1</v>
+      </c>
+      <c r="M37">
+        <v>5.289746000000001</v>
+      </c>
+      <c r="N37">
+        <v>-2.189746000000001</v>
+      </c>
+      <c r="O37">
+        <v>-0</v>
+      </c>
+      <c r="P37">
+        <v>-2.189746000000001</v>
+      </c>
+      <c r="Q37">
+        <v>12.710254</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07691632170186082</v>
+      </c>
+      <c r="T37">
+        <v>1.432549188598746</v>
+      </c>
+      <c r="U37">
+        <v>0.1402</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0.1402</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.5860394809126939</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1003746091062095</v>
+      </c>
+      <c r="C38">
+        <v>40.27026995206763</v>
+      </c>
+      <c r="D38">
+        <v>77.32826995206763</v>
+      </c>
+      <c r="E38">
+        <v>6.707999999999998</v>
+      </c>
+      <c r="F38">
+        <v>38.808</v>
+      </c>
+      <c r="G38">
+        <v>1.75</v>
+      </c>
+      <c r="H38">
+        <v>75.7</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>18</v>
+      </c>
+      <c r="K38">
+        <v>14.9</v>
+      </c>
+      <c r="L38">
+        <v>3.1</v>
+      </c>
+      <c r="M38">
+        <v>5.4408816</v>
+      </c>
+      <c r="N38">
+        <v>-2.3408816</v>
+      </c>
+      <c r="O38">
+        <v>-0</v>
+      </c>
+      <c r="P38">
+        <v>-2.3408816</v>
+      </c>
+      <c r="Q38">
+        <v>12.5591184</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07797282672845239</v>
+      </c>
+      <c r="T38">
+        <v>1.454932769670601</v>
+      </c>
+      <c r="U38">
+        <v>0.1402</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.1402</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.5697606064428971</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1016836091062095</v>
+      </c>
+      <c r="C39">
+        <v>38.54821542537868</v>
+      </c>
+      <c r="D39">
+        <v>76.68421542537868</v>
+      </c>
+      <c r="E39">
+        <v>7.786000000000001</v>
+      </c>
+      <c r="F39">
+        <v>39.886</v>
+      </c>
+      <c r="G39">
+        <v>1.75</v>
+      </c>
+      <c r="H39">
+        <v>75.7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <v>14.9</v>
+      </c>
+      <c r="L39">
+        <v>3.1</v>
+      </c>
+      <c r="M39">
+        <v>5.5920172</v>
+      </c>
+      <c r="N39">
+        <v>-2.4920172</v>
+      </c>
+      <c r="O39">
+        <v>-0</v>
+      </c>
+      <c r="P39">
+        <v>-2.4920172</v>
+      </c>
+      <c r="Q39">
+        <v>12.4079828</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07906287159715798</v>
+      </c>
+      <c r="T39">
+        <v>1.478026940617754</v>
+      </c>
+      <c r="U39">
+        <v>0.1402</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.1402</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.5543616711336294</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1029926091062095</v>
+      </c>
+      <c r="C40">
+        <v>36.83680073112057</v>
+      </c>
+      <c r="D40">
+        <v>76.05080073112057</v>
+      </c>
+      <c r="E40">
+        <v>8.864000000000004</v>
+      </c>
+      <c r="F40">
+        <v>40.96400000000001</v>
+      </c>
+      <c r="G40">
+        <v>1.75</v>
+      </c>
+      <c r="H40">
+        <v>75.7</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>18</v>
+      </c>
+      <c r="K40">
+        <v>14.9</v>
+      </c>
+      <c r="L40">
+        <v>3.1</v>
+      </c>
+      <c r="M40">
+        <v>5.743152800000001</v>
+      </c>
+      <c r="N40">
+        <v>-2.643152800000001</v>
+      </c>
+      <c r="O40">
+        <v>-0</v>
+      </c>
+      <c r="P40">
+        <v>-2.643152800000001</v>
+      </c>
+      <c r="Q40">
+        <v>12.2568472</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08018807920356374</v>
+      </c>
+      <c r="T40">
+        <v>1.501866084821266</v>
+      </c>
+      <c r="U40">
+        <v>0.1402</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0.1402</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.5397732061037971</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1043016091062095</v>
+      </c>
+      <c r="C41">
+        <v>35.13576437293617</v>
+      </c>
+      <c r="D41">
+        <v>75.42776437293618</v>
+      </c>
+      <c r="E41">
+        <v>9.942000000000007</v>
+      </c>
+      <c r="F41">
+        <v>42.04200000000001</v>
+      </c>
+      <c r="G41">
+        <v>1.75</v>
+      </c>
+      <c r="H41">
+        <v>75.7</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>14.9</v>
+      </c>
+      <c r="L41">
+        <v>3.1</v>
+      </c>
+      <c r="M41">
+        <v>5.894288400000001</v>
+      </c>
+      <c r="N41">
+        <v>-2.794288400000001</v>
+      </c>
+      <c r="O41">
+        <v>-0</v>
+      </c>
+      <c r="P41">
+        <v>-2.794288400000001</v>
+      </c>
+      <c r="Q41">
+        <v>12.1057116</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08135017886263857</v>
+      </c>
+      <c r="T41">
+        <v>1.526486840310139</v>
+      </c>
+      <c r="U41">
+        <v>0.1402</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0.1402</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.5259328674857511</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1056106091062095</v>
+      </c>
+      <c r="C42">
+        <v>33.44485335393802</v>
+      </c>
+      <c r="D42">
+        <v>74.81485335393802</v>
+      </c>
+      <c r="E42">
+        <v>11.02</v>
+      </c>
+      <c r="F42">
+        <v>43.12</v>
+      </c>
+      <c r="G42">
+        <v>1.75</v>
+      </c>
+      <c r="H42">
+        <v>75.7</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>18</v>
+      </c>
+      <c r="K42">
+        <v>14.9</v>
+      </c>
+      <c r="L42">
+        <v>3.1</v>
+      </c>
+      <c r="M42">
+        <v>6.045424000000001</v>
+      </c>
+      <c r="N42">
+        <v>-2.945424000000001</v>
+      </c>
+      <c r="O42">
+        <v>-0</v>
+      </c>
+      <c r="P42">
+        <v>-2.945424000000001</v>
+      </c>
+      <c r="Q42">
+        <v>11.954576</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08255101517701588</v>
+      </c>
+      <c r="T42">
+        <v>1.551928287648642</v>
+      </c>
+      <c r="U42">
+        <v>0.1402</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0.1402</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.5127845457986072</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1069196091062095</v>
+      </c>
+      <c r="C43">
+        <v>31.7638228341667</v>
+      </c>
+      <c r="D43">
+        <v>74.21182283416671</v>
+      </c>
+      <c r="E43">
+        <v>12.09800000000001</v>
+      </c>
+      <c r="F43">
+        <v>44.19800000000001</v>
+      </c>
+      <c r="G43">
+        <v>1.75</v>
+      </c>
+      <c r="H43">
+        <v>75.7</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>18</v>
+      </c>
+      <c r="K43">
+        <v>14.9</v>
+      </c>
+      <c r="L43">
+        <v>3.1</v>
+      </c>
+      <c r="M43">
+        <v>6.196559600000001</v>
+      </c>
+      <c r="N43">
+        <v>-3.096559600000001</v>
+      </c>
+      <c r="O43">
+        <v>-0</v>
+      </c>
+      <c r="P43">
+        <v>-3.096559600000001</v>
+      </c>
+      <c r="Q43">
+        <v>11.8034404</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08379255780713479</v>
+      </c>
+      <c r="T43">
+        <v>1.578232156930822</v>
+      </c>
+      <c r="U43">
+        <v>0.1402</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.1402</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.5002776056571778</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1264986091062095</v>
+      </c>
+      <c r="C44">
+        <v>22.70145740682857</v>
+      </c>
+      <c r="D44">
+        <v>66.22745740682858</v>
+      </c>
+      <c r="E44">
+        <v>13.176</v>
+      </c>
+      <c r="F44">
+        <v>45.276</v>
+      </c>
+      <c r="G44">
+        <v>1.75</v>
+      </c>
+      <c r="H44">
+        <v>75.7</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <v>14.9</v>
+      </c>
+      <c r="L44">
+        <v>3.1</v>
+      </c>
+      <c r="M44">
+        <v>8.317201200000001</v>
+      </c>
+      <c r="N44">
+        <v>-5.217201200000002</v>
+      </c>
+      <c r="O44">
+        <v>-0</v>
+      </c>
+      <c r="P44">
+        <v>-5.217201200000002</v>
+      </c>
+      <c r="Q44">
+        <v>9.682798799999999</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08507691225208538</v>
+      </c>
+      <c r="T44">
+        <v>1.60544305618825</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0.1837</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.3727215352202853</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1282426091062095</v>
+      </c>
+      <c r="C45">
+        <v>20.99479263213018</v>
+      </c>
+      <c r="D45">
+        <v>65.59879263213018</v>
+      </c>
+      <c r="E45">
+        <v>14.254</v>
+      </c>
+      <c r="F45">
+        <v>46.35400000000001</v>
+      </c>
+      <c r="G45">
+        <v>1.75</v>
+      </c>
+      <c r="H45">
+        <v>75.7</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <v>14.9</v>
+      </c>
+      <c r="L45">
+        <v>3.1</v>
+      </c>
+      <c r="M45">
+        <v>8.515229800000002</v>
+      </c>
+      <c r="N45">
+        <v>-5.415229800000002</v>
+      </c>
+      <c r="O45">
+        <v>-0</v>
+      </c>
+      <c r="P45">
+        <v>-5.415229800000002</v>
+      </c>
+      <c r="Q45">
+        <v>9.484770199999998</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.08640633176527987</v>
+      </c>
+      <c r="T45">
+        <v>1.633608723840675</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0.1837</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.3640535925407438</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1299866091062095</v>
+      </c>
+      <c r="C46">
+        <v>19.29995084046017</v>
+      </c>
+      <c r="D46">
+        <v>64.98195084046017</v>
+      </c>
+      <c r="E46">
+        <v>15.332</v>
+      </c>
+      <c r="F46">
+        <v>47.432</v>
+      </c>
+      <c r="G46">
+        <v>1.75</v>
+      </c>
+      <c r="H46">
+        <v>75.7</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>18</v>
+      </c>
+      <c r="K46">
+        <v>14.9</v>
+      </c>
+      <c r="L46">
+        <v>3.1</v>
+      </c>
+      <c r="M46">
+        <v>8.713258400000001</v>
+      </c>
+      <c r="N46">
+        <v>-5.613258400000001</v>
+      </c>
+      <c r="O46">
+        <v>-0</v>
+      </c>
+      <c r="P46">
+        <v>-5.613258400000001</v>
+      </c>
+      <c r="Q46">
+        <v>9.286741599999999</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08778323054680272</v>
+      </c>
+      <c r="T46">
+        <v>1.662780308194973</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0.1837</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.3557796472557269</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1317306091062095</v>
+      </c>
+      <c r="C47">
+        <v>17.61660161544033</v>
+      </c>
+      <c r="D47">
+        <v>64.37660161544034</v>
+      </c>
+      <c r="E47">
+        <v>16.41</v>
+      </c>
+      <c r="F47">
+        <v>48.51000000000001</v>
+      </c>
+      <c r="G47">
+        <v>1.75</v>
+      </c>
+      <c r="H47">
+        <v>75.7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>18</v>
+      </c>
+      <c r="K47">
+        <v>14.9</v>
+      </c>
+      <c r="L47">
+        <v>3.1</v>
+      </c>
+      <c r="M47">
+        <v>8.911287000000002</v>
+      </c>
+      <c r="N47">
+        <v>-5.811287000000002</v>
+      </c>
+      <c r="O47">
+        <v>-0</v>
+      </c>
+      <c r="P47">
+        <v>-5.811287000000002</v>
+      </c>
+      <c r="Q47">
+        <v>9.088712999999998</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08921019837492641</v>
+      </c>
+      <c r="T47">
+        <v>1.693012677434881</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0.1837</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.3478734328722662</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1334746091062095</v>
+      </c>
+      <c r="C48">
+        <v>15.94442673923091</v>
+      </c>
+      <c r="D48">
+        <v>63.78242673923092</v>
+      </c>
+      <c r="E48">
+        <v>17.48800000000001</v>
+      </c>
+      <c r="F48">
+        <v>49.58800000000001</v>
+      </c>
+      <c r="G48">
+        <v>1.75</v>
+      </c>
+      <c r="H48">
+        <v>75.7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>14.9</v>
+      </c>
+      <c r="L48">
+        <v>3.1</v>
+      </c>
+      <c r="M48">
+        <v>9.109315600000002</v>
+      </c>
+      <c r="N48">
+        <v>-6.009315600000003</v>
+      </c>
+      <c r="O48">
+        <v>-0</v>
+      </c>
+      <c r="P48">
+        <v>-6.009315600000003</v>
+      </c>
+      <c r="Q48">
+        <v>8.890684399999998</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09069001686335097</v>
+      </c>
+      <c r="T48">
+        <v>1.724364764054046</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0.1837</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.3403109669402604</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1352186091062095</v>
+      </c>
+      <c r="C49">
+        <v>14.28311963473617</v>
+      </c>
+      <c r="D49">
+        <v>63.19911963473618</v>
+      </c>
+      <c r="E49">
+        <v>18.56600000000001</v>
+      </c>
+      <c r="F49">
+        <v>50.66600000000001</v>
+      </c>
+      <c r="G49">
+        <v>1.75</v>
+      </c>
+      <c r="H49">
+        <v>75.7</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>18</v>
+      </c>
+      <c r="K49">
+        <v>14.9</v>
+      </c>
+      <c r="L49">
+        <v>3.1</v>
+      </c>
+      <c r="M49">
+        <v>9.307344200000003</v>
+      </c>
+      <c r="N49">
+        <v>-6.207344200000003</v>
+      </c>
+      <c r="O49">
+        <v>-0</v>
+      </c>
+      <c r="P49">
+        <v>-6.207344200000003</v>
+      </c>
+      <c r="Q49">
+        <v>8.692655799999997</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.0922256775588859</v>
+      </c>
+      <c r="T49">
+        <v>1.756899948281481</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0.1837</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.333070308069191</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1369626091062095</v>
+      </c>
+      <c r="C50">
+        <v>12.63238483813992</v>
+      </c>
+      <c r="D50">
+        <v>62.62638483813993</v>
+      </c>
+      <c r="E50">
+        <v>19.64400000000001</v>
+      </c>
+      <c r="F50">
+        <v>51.74400000000001</v>
+      </c>
+      <c r="G50">
+        <v>1.75</v>
+      </c>
+      <c r="H50">
+        <v>75.7</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>18</v>
+      </c>
+      <c r="K50">
+        <v>14.9</v>
+      </c>
+      <c r="L50">
+        <v>3.1</v>
+      </c>
+      <c r="M50">
+        <v>9.505372800000002</v>
+      </c>
+      <c r="N50">
+        <v>-6.405372800000002</v>
+      </c>
+      <c r="O50">
+        <v>-0</v>
+      </c>
+      <c r="P50">
+        <v>-6.405372800000002</v>
+      </c>
+      <c r="Q50">
+        <v>8.494627199999998</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.09382040212732599</v>
+      </c>
+      <c r="T50">
+        <v>1.790686485748432</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0.1837</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.3261313433177496</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1387066091062095</v>
+      </c>
+      <c r="C51">
+        <v>10.99193749986387</v>
+      </c>
+      <c r="D51">
+        <v>62.06393749986388</v>
+      </c>
+      <c r="E51">
+        <v>20.722</v>
+      </c>
+      <c r="F51">
+        <v>52.822</v>
+      </c>
+      <c r="G51">
+        <v>1.75</v>
+      </c>
+      <c r="H51">
+        <v>75.7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>18</v>
+      </c>
+      <c r="K51">
+        <v>14.9</v>
+      </c>
+      <c r="L51">
+        <v>3.1</v>
+      </c>
+      <c r="M51">
+        <v>9.703401400000001</v>
+      </c>
+      <c r="N51">
+        <v>-6.603401400000001</v>
+      </c>
+      <c r="O51">
+        <v>-0</v>
+      </c>
+      <c r="P51">
+        <v>-6.603401400000001</v>
+      </c>
+      <c r="Q51">
+        <v>8.296598599999999</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09547766491413633</v>
+      </c>
+      <c r="T51">
+        <v>1.82579798546899</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0.1837</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.3194756016173874</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1404506091062095</v>
+      </c>
+      <c r="C52">
+        <v>9.361502912178018</v>
+      </c>
+      <c r="D52">
+        <v>61.51150291217802</v>
+      </c>
+      <c r="E52">
+        <v>21.8</v>
+      </c>
+      <c r="F52">
+        <v>53.90000000000001</v>
+      </c>
+      <c r="G52">
+        <v>1.75</v>
+      </c>
+      <c r="H52">
+        <v>75.7</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>18</v>
+      </c>
+      <c r="K52">
+        <v>14.9</v>
+      </c>
+      <c r="L52">
+        <v>3.1</v>
+      </c>
+      <c r="M52">
+        <v>9.901430000000001</v>
+      </c>
+      <c r="N52">
+        <v>-6.801430000000002</v>
+      </c>
+      <c r="O52">
+        <v>-0</v>
+      </c>
+      <c r="P52">
+        <v>-6.801430000000002</v>
+      </c>
+      <c r="Q52">
+        <v>8.098569999999999</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.09720121821241905</v>
+      </c>
+      <c r="T52">
+        <v>1.86231394517837</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0.1837</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.3130860895850397</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1421946091062095</v>
+      </c>
+      <c r="C53">
+        <v>7.740816061816979</v>
+      </c>
+      <c r="D53">
+        <v>60.96881606181699</v>
+      </c>
+      <c r="E53">
+        <v>22.87800000000001</v>
+      </c>
+      <c r="F53">
+        <v>54.97800000000001</v>
+      </c>
+      <c r="G53">
+        <v>1.75</v>
+      </c>
+      <c r="H53">
+        <v>75.7</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>18</v>
+      </c>
+      <c r="K53">
+        <v>14.9</v>
+      </c>
+      <c r="L53">
+        <v>3.1</v>
+      </c>
+      <c r="M53">
+        <v>10.0994586</v>
+      </c>
+      <c r="N53">
+        <v>-6.999458600000002</v>
+      </c>
+      <c r="O53">
+        <v>-0</v>
+      </c>
+      <c r="P53">
+        <v>-6.999458600000002</v>
+      </c>
+      <c r="Q53">
+        <v>7.900541399999998</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.0989951206249174</v>
+      </c>
+      <c r="T53">
+        <v>1.900320352222826</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0.1837</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.3069471466519996</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1439386091062095</v>
+      </c>
+      <c r="C54">
+        <v>6.12962120607169</v>
+      </c>
+      <c r="D54">
+        <v>60.43562120607169</v>
+      </c>
+      <c r="E54">
+        <v>23.956</v>
+      </c>
+      <c r="F54">
+        <v>56.056</v>
+      </c>
+      <c r="G54">
+        <v>1.75</v>
+      </c>
+      <c r="H54">
+        <v>75.7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>18</v>
+      </c>
+      <c r="K54">
+        <v>14.9</v>
+      </c>
+      <c r="L54">
+        <v>3.1</v>
+      </c>
+      <c r="M54">
+        <v>10.2974872</v>
+      </c>
+      <c r="N54">
+        <v>-7.197487200000001</v>
+      </c>
+      <c r="O54">
+        <v>-0</v>
+      </c>
+      <c r="P54">
+        <v>-7.197487200000001</v>
+      </c>
+      <c r="Q54">
+        <v>7.702512799999999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1008637689712698</v>
+      </c>
+      <c r="T54">
+        <v>1.939910359560802</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0.1837</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.301044316908692</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1456826091062095</v>
+      </c>
+      <c r="C55">
+        <v>4.527671470931438</v>
+      </c>
+      <c r="D55">
+        <v>59.91167147093145</v>
+      </c>
+      <c r="E55">
+        <v>25.03400000000001</v>
+      </c>
+      <c r="F55">
+        <v>57.13400000000001</v>
+      </c>
+      <c r="G55">
+        <v>1.75</v>
+      </c>
+      <c r="H55">
+        <v>75.7</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>18</v>
+      </c>
+      <c r="K55">
+        <v>14.9</v>
+      </c>
+      <c r="L55">
+        <v>3.1</v>
+      </c>
+      <c r="M55">
+        <v>10.4955158</v>
+      </c>
+      <c r="N55">
+        <v>-7.395515800000002</v>
+      </c>
+      <c r="O55">
+        <v>-0</v>
+      </c>
+      <c r="P55">
+        <v>-7.395515800000002</v>
+      </c>
+      <c r="Q55">
+        <v>7.504484199999998</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1028119342685309</v>
+      </c>
+      <c r="T55">
+        <v>1.981185048062095</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0.1837</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2953642354575846</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1474266091062095</v>
+      </c>
+      <c r="C56">
+        <v>2.93472846995008</v>
+      </c>
+      <c r="D56">
+        <v>59.39672846995009</v>
+      </c>
+      <c r="E56">
+        <v>26.11200000000001</v>
+      </c>
+      <c r="F56">
+        <v>58.21200000000001</v>
+      </c>
+      <c r="G56">
+        <v>1.75</v>
+      </c>
+      <c r="H56">
+        <v>75.7</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>18</v>
+      </c>
+      <c r="K56">
+        <v>14.9</v>
+      </c>
+      <c r="L56">
+        <v>3.1</v>
+      </c>
+      <c r="M56">
+        <v>10.6935444</v>
+      </c>
+      <c r="N56">
+        <v>-7.593544400000003</v>
+      </c>
+      <c r="O56">
+        <v>-0</v>
+      </c>
+      <c r="P56">
+        <v>-7.593544400000003</v>
+      </c>
+      <c r="Q56">
+        <v>7.306455599999998</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1048448024048033</v>
+      </c>
+      <c r="T56">
+        <v>2.024254288237358</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0.1837</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2898945273935553</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1491706091062096</v>
+      </c>
+      <c r="C57">
+        <v>1.350561942599647</v>
+      </c>
+      <c r="D57">
+        <v>58.89056194259966</v>
+      </c>
+      <c r="E57">
+        <v>27.19000000000001</v>
+      </c>
+      <c r="F57">
+        <v>59.29000000000001</v>
+      </c>
+      <c r="G57">
+        <v>1.75</v>
+      </c>
+      <c r="H57">
+        <v>75.7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>18</v>
+      </c>
+      <c r="K57">
+        <v>14.9</v>
+      </c>
+      <c r="L57">
+        <v>3.1</v>
+      </c>
+      <c r="M57">
+        <v>10.891573</v>
+      </c>
+      <c r="N57">
+        <v>-7.791573000000003</v>
+      </c>
+      <c r="O57">
+        <v>-0</v>
+      </c>
+      <c r="P57">
+        <v>-7.791573000000003</v>
+      </c>
+      <c r="Q57">
+        <v>7.108426999999997</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1069680202360212</v>
+      </c>
+      <c r="T57">
+        <v>2.069237716864855</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0.1837</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.2846237178045815</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1509146091062095</v>
+      </c>
+      <c r="C58">
+        <v>-0.2250505890408263</v>
+      </c>
+      <c r="D58">
+        <v>58.39294941095918</v>
+      </c>
+      <c r="E58">
+        <v>28.26800000000001</v>
+      </c>
+      <c r="F58">
+        <v>60.36800000000001</v>
+      </c>
+      <c r="G58">
+        <v>1.75</v>
+      </c>
+      <c r="H58">
+        <v>75.7</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>18</v>
+      </c>
+      <c r="K58">
+        <v>14.9</v>
+      </c>
+      <c r="L58">
+        <v>3.1</v>
+      </c>
+      <c r="M58">
+        <v>11.0896016</v>
+      </c>
+      <c r="N58">
+        <v>-7.989601600000002</v>
+      </c>
+      <c r="O58">
+        <v>-0</v>
+      </c>
+      <c r="P58">
+        <v>-7.989601600000002</v>
+      </c>
+      <c r="Q58">
+        <v>6.910398399999998</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.109187747968658</v>
+      </c>
+      <c r="T58">
+        <v>2.116265846793602</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0.1837</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.279541151415214</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1526586091062095</v>
+      </c>
+      <c r="C59">
+        <v>-1.792324146337087</v>
+      </c>
+      <c r="D59">
+        <v>57.90367585366293</v>
+      </c>
+      <c r="E59">
+        <v>29.34600000000001</v>
+      </c>
+      <c r="F59">
+        <v>61.44600000000001</v>
+      </c>
+      <c r="G59">
+        <v>1.75</v>
+      </c>
+      <c r="H59">
+        <v>75.7</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>18</v>
+      </c>
+      <c r="K59">
+        <v>14.9</v>
+      </c>
+      <c r="L59">
+        <v>3.1</v>
+      </c>
+      <c r="M59">
+        <v>11.2876302</v>
+      </c>
+      <c r="N59">
+        <v>-8.187630200000003</v>
+      </c>
+      <c r="O59">
+        <v>-0</v>
+      </c>
+      <c r="P59">
+        <v>-8.187630200000003</v>
+      </c>
+      <c r="Q59">
+        <v>6.712369799999998</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1115107188516501</v>
+      </c>
+      <c r="T59">
+        <v>2.165481331602756</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0.1837</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2746369206886312</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1544026091062095</v>
+      </c>
+      <c r="C60">
+        <v>-3.351466603895524</v>
+      </c>
+      <c r="D60">
+        <v>57.42253339610448</v>
+      </c>
+      <c r="E60">
+        <v>30.424</v>
+      </c>
+      <c r="F60">
+        <v>62.524</v>
+      </c>
+      <c r="G60">
+        <v>1.75</v>
+      </c>
+      <c r="H60">
+        <v>75.7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>18</v>
+      </c>
+      <c r="K60">
+        <v>14.9</v>
+      </c>
+      <c r="L60">
+        <v>3.1</v>
+      </c>
+      <c r="M60">
+        <v>11.4856588</v>
+      </c>
+      <c r="N60">
+        <v>-8.3856588</v>
+      </c>
+      <c r="O60">
+        <v>-0</v>
+      </c>
+      <c r="P60">
+        <v>-8.3856588</v>
+      </c>
+      <c r="Q60">
+        <v>6.5143412</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1139443073957369</v>
+      </c>
+      <c r="T60">
+        <v>2.21704041092663</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0.1837</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.2699018013664135</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1561466091062095</v>
+      </c>
+      <c r="C61">
+        <v>-4.902678984041323</v>
+      </c>
+      <c r="D61">
+        <v>56.94932101595868</v>
+      </c>
+      <c r="E61">
+        <v>31.502</v>
+      </c>
+      <c r="F61">
+        <v>63.602</v>
+      </c>
+      <c r="G61">
+        <v>1.75</v>
+      </c>
+      <c r="H61">
+        <v>75.7</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>18</v>
+      </c>
+      <c r="K61">
+        <v>14.9</v>
+      </c>
+      <c r="L61">
+        <v>3.1</v>
+      </c>
+      <c r="M61">
+        <v>11.6836874</v>
+      </c>
+      <c r="N61">
+        <v>-8.583687400000001</v>
+      </c>
+      <c r="O61">
+        <v>-0</v>
+      </c>
+      <c r="P61">
+        <v>-8.583687400000001</v>
+      </c>
+      <c r="Q61">
+        <v>6.3163126</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1164966075761208</v>
+      </c>
+      <c r="T61">
+        <v>2.271114567290694</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0.1837</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.265327194563593</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1578906091062095</v>
+      </c>
+      <c r="C62">
+        <v>-6.446155736854912</v>
+      </c>
+      <c r="D62">
+        <v>56.48384426314509</v>
+      </c>
+      <c r="E62">
+        <v>32.58000000000001</v>
+      </c>
+      <c r="F62">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="G62">
+        <v>1.75</v>
+      </c>
+      <c r="H62">
+        <v>75.7</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>18</v>
+      </c>
+      <c r="K62">
+        <v>14.9</v>
+      </c>
+      <c r="L62">
+        <v>3.1</v>
+      </c>
+      <c r="M62">
+        <v>11.881716</v>
+      </c>
+      <c r="N62">
+        <v>-8.781716000000001</v>
+      </c>
+      <c r="O62">
+        <v>-0</v>
+      </c>
+      <c r="P62">
+        <v>-8.781716000000001</v>
+      </c>
+      <c r="Q62">
+        <v>6.118283999999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1191765227655238</v>
+      </c>
+      <c r="T62">
+        <v>2.327892431472962</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0.1837</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2609050746541998</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1596346091062095</v>
+      </c>
+      <c r="C63">
+        <v>-7.982085006586438</v>
+      </c>
+      <c r="D63">
+        <v>56.02591499341357</v>
+      </c>
+      <c r="E63">
+        <v>33.65800000000001</v>
+      </c>
+      <c r="F63">
+        <v>65.75800000000001</v>
+      </c>
+      <c r="G63">
+        <v>1.75</v>
+      </c>
+      <c r="H63">
+        <v>75.7</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>18</v>
+      </c>
+      <c r="K63">
+        <v>14.9</v>
+      </c>
+      <c r="L63">
+        <v>3.1</v>
+      </c>
+      <c r="M63">
+        <v>12.0797446</v>
+      </c>
+      <c r="N63">
+        <v>-8.979744600000002</v>
+      </c>
+      <c r="O63">
+        <v>-0</v>
+      </c>
+      <c r="P63">
+        <v>-8.979744600000002</v>
+      </c>
+      <c r="Q63">
+        <v>5.920255399999999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1219938695031013</v>
+      </c>
+      <c r="T63">
+        <v>2.38758198099791</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0.1837</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.2566279422828194</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1613786091062095</v>
+      </c>
+      <c r="C64">
+        <v>-9.510648885215211</v>
+      </c>
+      <c r="D64">
+        <v>55.5753511147848</v>
+      </c>
+      <c r="E64">
+        <v>34.73600000000001</v>
+      </c>
+      <c r="F64">
+        <v>66.83600000000001</v>
+      </c>
+      <c r="G64">
+        <v>1.75</v>
+      </c>
+      <c r="H64">
+        <v>75.7</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>18</v>
+      </c>
+      <c r="K64">
+        <v>14.9</v>
+      </c>
+      <c r="L64">
+        <v>3.1</v>
+      </c>
+      <c r="M64">
+        <v>12.2777732</v>
+      </c>
+      <c r="N64">
+        <v>-9.177773200000003</v>
+      </c>
+      <c r="O64">
+        <v>-0</v>
+      </c>
+      <c r="P64">
+        <v>-9.177773200000003</v>
+      </c>
+      <c r="Q64">
+        <v>5.722226799999998</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1249594976479198</v>
+      </c>
+      <c r="T64">
+        <v>2.450413085761013</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0.1837</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.2524887819234191</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1631226091062095</v>
+      </c>
+      <c r="C65">
+        <v>-11.03202365387185</v>
+      </c>
+      <c r="D65">
+        <v>55.13197634612816</v>
+      </c>
+      <c r="E65">
+        <v>35.814</v>
+      </c>
+      <c r="F65">
+        <v>67.914</v>
+      </c>
+      <c r="G65">
+        <v>1.75</v>
+      </c>
+      <c r="H65">
+        <v>75.7</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>18</v>
+      </c>
+      <c r="K65">
+        <v>14.9</v>
+      </c>
+      <c r="L65">
+        <v>3.1</v>
+      </c>
+      <c r="M65">
+        <v>12.4758018</v>
+      </c>
+      <c r="N65">
+        <v>-9.375801800000001</v>
+      </c>
+      <c r="O65">
+        <v>-0</v>
+      </c>
+      <c r="P65">
+        <v>-9.375801800000001</v>
+      </c>
+      <c r="Q65">
+        <v>5.524198199999999</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1280854300167825</v>
+      </c>
+      <c r="T65">
+        <v>2.516640466457256</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0.1837</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2484810234801902</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1648666091062095</v>
+      </c>
+      <c r="C66">
+        <v>-12.54638001279562</v>
+      </c>
+      <c r="D66">
+        <v>54.69561998720438</v>
+      </c>
+      <c r="E66">
+        <v>36.892</v>
+      </c>
+      <c r="F66">
+        <v>68.992</v>
+      </c>
+      <c r="G66">
+        <v>1.75</v>
+      </c>
+      <c r="H66">
+        <v>75.7</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>18</v>
+      </c>
+      <c r="K66">
+        <v>14.9</v>
+      </c>
+      <c r="L66">
+        <v>3.1</v>
+      </c>
+      <c r="M66">
+        <v>12.6738304</v>
+      </c>
+      <c r="N66">
+        <v>-9.573830400000002</v>
+      </c>
+      <c r="O66">
+        <v>-0</v>
+      </c>
+      <c r="P66">
+        <v>-9.573830400000002</v>
+      </c>
+      <c r="Q66">
+        <v>5.326169599999998</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1313850252950264</v>
+      </c>
+      <c r="T66">
+        <v>2.586547146081069</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0.1837</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.2445985074883122</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1666106091062095</v>
+      </c>
+      <c r="C67">
+        <v>-14.05388330045726</v>
+      </c>
+      <c r="D67">
+        <v>54.26611669954275</v>
+      </c>
+      <c r="E67">
+        <v>37.97000000000001</v>
+      </c>
+      <c r="F67">
+        <v>70.07000000000001</v>
+      </c>
+      <c r="G67">
+        <v>1.75</v>
+      </c>
+      <c r="H67">
+        <v>75.7</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>18</v>
+      </c>
+      <c r="K67">
+        <v>14.9</v>
+      </c>
+      <c r="L67">
+        <v>3.1</v>
+      </c>
+      <c r="M67">
+        <v>12.871859</v>
+      </c>
+      <c r="N67">
+        <v>-9.771859000000003</v>
+      </c>
+      <c r="O67">
+        <v>-0</v>
+      </c>
+      <c r="P67">
+        <v>-9.771859000000003</v>
+      </c>
+      <c r="Q67">
+        <v>5.128140999999998</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1348731688748844</v>
+      </c>
+      <c r="T67">
+        <v>2.660448493111957</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0.1837</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.2408354535269536</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1683546091062095</v>
+      </c>
+      <c r="C68">
+        <v>-15.554693702438</v>
+      </c>
+      <c r="D68">
+        <v>53.84330629756201</v>
+      </c>
+      <c r="E68">
+        <v>39.04800000000001</v>
+      </c>
+      <c r="F68">
+        <v>71.14800000000001</v>
+      </c>
+      <c r="G68">
+        <v>1.75</v>
+      </c>
+      <c r="H68">
+        <v>75.7</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>18</v>
+      </c>
+      <c r="K68">
+        <v>14.9</v>
+      </c>
+      <c r="L68">
+        <v>3.1</v>
+      </c>
+      <c r="M68">
+        <v>13.0698876</v>
+      </c>
+      <c r="N68">
+        <v>-9.969887600000002</v>
+      </c>
+      <c r="O68">
+        <v>-0</v>
+      </c>
+      <c r="P68">
+        <v>-9.969887600000002</v>
+      </c>
+      <c r="Q68">
+        <v>4.930112399999999</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1385664973712045</v>
+      </c>
+      <c r="T68">
+        <v>2.738696978203485</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0.1837</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.2371864315038179</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1700986091062095</v>
+      </c>
+      <c r="C69">
+        <v>-17.0489664506194</v>
+      </c>
+      <c r="D69">
+        <v>53.42703354938061</v>
+      </c>
+      <c r="E69">
+        <v>40.12600000000001</v>
+      </c>
+      <c r="F69">
+        <v>72.22600000000001</v>
+      </c>
+      <c r="G69">
+        <v>1.75</v>
+      </c>
+      <c r="H69">
+        <v>75.7</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>18</v>
+      </c>
+      <c r="K69">
+        <v>14.9</v>
+      </c>
+      <c r="L69">
+        <v>3.1</v>
+      </c>
+      <c r="M69">
+        <v>13.2679162</v>
+      </c>
+      <c r="N69">
+        <v>-10.1679162</v>
+      </c>
+      <c r="O69">
+        <v>-0</v>
+      </c>
+      <c r="P69">
+        <v>-10.1679162</v>
+      </c>
+      <c r="Q69">
+        <v>4.732083799999998</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1424836639582107</v>
+      </c>
+      <c r="T69">
+        <v>2.821687795724803</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0.1837</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.2336463355112236</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1718426091062095</v>
+      </c>
+      <c r="C70">
+        <v>-18.53685201320425</v>
+      </c>
+      <c r="D70">
+        <v>53.01714798679577</v>
+      </c>
+      <c r="E70">
+        <v>41.20400000000001</v>
+      </c>
+      <c r="F70">
+        <v>73.30400000000002</v>
+      </c>
+      <c r="G70">
+        <v>1.75</v>
+      </c>
+      <c r="H70">
+        <v>75.7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>18</v>
+      </c>
+      <c r="K70">
+        <v>14.9</v>
+      </c>
+      <c r="L70">
+        <v>3.1</v>
+      </c>
+      <c r="M70">
+        <v>13.4659448</v>
+      </c>
+      <c r="N70">
+        <v>-10.3659448</v>
+      </c>
+      <c r="O70">
+        <v>-0</v>
+      </c>
+      <c r="P70">
+        <v>-10.3659448</v>
+      </c>
+      <c r="Q70">
+        <v>4.534055199999997</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1466456534569048</v>
+      </c>
+      <c r="T70">
+        <v>2.909865539341203</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0.1837</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.2302103599889997</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1735866091062095</v>
+      </c>
+      <c r="C71">
+        <v>-20.01849627605698</v>
+      </c>
+      <c r="D71">
+        <v>52.61350372394304</v>
+      </c>
+      <c r="E71">
+        <v>42.28200000000002</v>
+      </c>
+      <c r="F71">
+        <v>74.38200000000002</v>
+      </c>
+      <c r="G71">
+        <v>1.75</v>
+      </c>
+      <c r="H71">
+        <v>75.7</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>18</v>
+      </c>
+      <c r="K71">
+        <v>14.9</v>
+      </c>
+      <c r="L71">
+        <v>3.1</v>
+      </c>
+      <c r="M71">
+        <v>13.6639734</v>
+      </c>
+      <c r="N71">
+        <v>-10.5639734</v>
+      </c>
+      <c r="O71">
+        <v>-0</v>
+      </c>
+      <c r="P71">
+        <v>-10.5639734</v>
+      </c>
+      <c r="Q71">
+        <v>4.336026599999997</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1510761584071275</v>
+      </c>
+      <c r="T71">
+        <v>3.003732169642532</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0.1837</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.2268739779601736</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1753306091062095</v>
+      </c>
+      <c r="C72">
+        <v>-21.49404071582313</v>
+      </c>
+      <c r="D72">
+        <v>52.21595928417689</v>
+      </c>
+      <c r="E72">
+        <v>43.36000000000002</v>
+      </c>
+      <c r="F72">
+        <v>75.46000000000002</v>
+      </c>
+      <c r="G72">
+        <v>1.75</v>
+      </c>
+      <c r="H72">
+        <v>75.7</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>18</v>
+      </c>
+      <c r="K72">
+        <v>14.9</v>
+      </c>
+      <c r="L72">
+        <v>3.1</v>
+      </c>
+      <c r="M72">
+        <v>13.862002</v>
+      </c>
+      <c r="N72">
+        <v>-10.762002</v>
+      </c>
+      <c r="O72">
+        <v>-0</v>
+      </c>
+      <c r="P72">
+        <v>-10.762002</v>
+      </c>
+      <c r="Q72">
+        <v>4.137997999999996</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1558020303540318</v>
+      </c>
+      <c r="T72">
+        <v>3.103856575297284</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0.1837</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.2236329211321711</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1770746091062095</v>
+      </c>
+      <c r="C73">
+        <v>-22.963622565259</v>
+      </c>
+      <c r="D73">
+        <v>51.82437743474101</v>
+      </c>
+      <c r="E73">
+        <v>44.43800000000001</v>
+      </c>
+      <c r="F73">
+        <v>76.53800000000001</v>
+      </c>
+      <c r="G73">
+        <v>1.75</v>
+      </c>
+      <c r="H73">
+        <v>75.7</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>18</v>
+      </c>
+      <c r="K73">
+        <v>14.9</v>
+      </c>
+      <c r="L73">
+        <v>3.1</v>
+      </c>
+      <c r="M73">
+        <v>14.0600306</v>
+      </c>
+      <c r="N73">
+        <v>-10.9600306</v>
+      </c>
+      <c r="O73">
+        <v>-0</v>
+      </c>
+      <c r="P73">
+        <v>-10.9600306</v>
+      </c>
+      <c r="Q73">
+        <v>3.939969399999997</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1608538245041708</v>
+      </c>
+      <c r="T73">
+        <v>3.210886112376499</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0.1837</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.2204831616796054</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1788186091062095</v>
+      </c>
+      <c r="C74">
+        <v>-24.42737497117772</v>
+      </c>
+      <c r="D74">
+        <v>51.43862502882228</v>
+      </c>
+      <c r="E74">
+        <v>45.516</v>
+      </c>
+      <c r="F74">
+        <v>77.616</v>
+      </c>
+      <c r="G74">
+        <v>1.75</v>
+      </c>
+      <c r="H74">
+        <v>75.7</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>18</v>
+      </c>
+      <c r="K74">
+        <v>14.9</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74">
+        <v>14.2580592</v>
+      </c>
+      <c r="N74">
+        <v>-11.1580592</v>
+      </c>
+      <c r="O74">
+        <v>-0</v>
+      </c>
+      <c r="P74">
+        <v>-11.1580592</v>
+      </c>
+      <c r="Q74">
+        <v>3.7419408</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1662664610936054</v>
+      </c>
+      <c r="T74">
+        <v>3.325560616389946</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0.1837</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.2174208955451664</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1805626091062095</v>
+      </c>
+      <c r="C75">
+        <v>-25.88542714539327</v>
+      </c>
+      <c r="D75">
+        <v>51.05857285460673</v>
+      </c>
+      <c r="E75">
+        <v>46.594</v>
+      </c>
+      <c r="F75">
+        <v>78.694</v>
+      </c>
+      <c r="G75">
+        <v>1.75</v>
+      </c>
+      <c r="H75">
+        <v>75.7</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>18</v>
+      </c>
+      <c r="K75">
+        <v>14.9</v>
+      </c>
+      <c r="L75">
+        <v>3.1</v>
+      </c>
+      <c r="M75">
+        <v>14.4560878</v>
+      </c>
+      <c r="N75">
+        <v>-11.3560878</v>
+      </c>
+      <c r="O75">
+        <v>-0</v>
+      </c>
+      <c r="P75">
+        <v>-11.3560878</v>
+      </c>
+      <c r="Q75">
+        <v>3.543912199999999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1720800337267019</v>
+      </c>
+      <c r="T75">
+        <v>3.448729528108092</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0.1837</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.2144425271130409</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1823066091062095</v>
+      </c>
+      <c r="C76">
+        <v>-27.3379045090223</v>
+      </c>
+      <c r="D76">
+        <v>50.6840954909777</v>
+      </c>
+      <c r="E76">
+        <v>47.672</v>
+      </c>
+      <c r="F76">
+        <v>79.77200000000001</v>
+      </c>
+      <c r="G76">
+        <v>1.75</v>
+      </c>
+      <c r="H76">
+        <v>75.7</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>18</v>
+      </c>
+      <c r="K76">
+        <v>14.9</v>
+      </c>
+      <c r="L76">
+        <v>3.1</v>
+      </c>
+      <c r="M76">
+        <v>14.6541164</v>
+      </c>
+      <c r="N76">
+        <v>-11.5541164</v>
+      </c>
+      <c r="O76">
+        <v>-0</v>
+      </c>
+      <c r="P76">
+        <v>-11.5541164</v>
+      </c>
+      <c r="Q76">
+        <v>3.345883599999999</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.178340804254652</v>
+      </c>
+      <c r="T76">
+        <v>3.581372971496864</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0.1837</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2115446551250268</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1840506091062095</v>
+      </c>
+      <c r="C77">
+        <v>-28.78492883048191</v>
+      </c>
+      <c r="D77">
+        <v>50.3150711695181</v>
+      </c>
+      <c r="E77">
+        <v>48.75000000000001</v>
+      </c>
+      <c r="F77">
+        <v>80.85000000000001</v>
+      </c>
+      <c r="G77">
+        <v>1.75</v>
+      </c>
+      <c r="H77">
+        <v>75.7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>18</v>
+      </c>
+      <c r="K77">
+        <v>14.9</v>
+      </c>
+      <c r="L77">
+        <v>3.1</v>
+      </c>
+      <c r="M77">
+        <v>14.852145</v>
+      </c>
+      <c r="N77">
+        <v>-11.752145</v>
+      </c>
+      <c r="O77">
+        <v>-0</v>
+      </c>
+      <c r="P77">
+        <v>-11.752145</v>
+      </c>
+      <c r="Q77">
+        <v>3.147854999999998</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1851024364248381</v>
+      </c>
+      <c r="T77">
+        <v>3.724627890356739</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0.1837</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.2087240597233597</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1857946091062095</v>
+      </c>
+      <c r="C78">
+        <v>-30.22661835750277</v>
+      </c>
+      <c r="D78">
+        <v>49.95138164249725</v>
+      </c>
+      <c r="E78">
+        <v>49.82800000000001</v>
+      </c>
+      <c r="F78">
+        <v>81.92800000000001</v>
+      </c>
+      <c r="G78">
+        <v>1.75</v>
+      </c>
+      <c r="H78">
+        <v>75.7</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>18</v>
+      </c>
+      <c r="K78">
+        <v>14.9</v>
+      </c>
+      <c r="L78">
+        <v>3.1</v>
+      </c>
+      <c r="M78">
+        <v>15.0501736</v>
+      </c>
+      <c r="N78">
+        <v>-11.9501736</v>
+      </c>
+      <c r="O78">
+        <v>-0</v>
+      </c>
+      <c r="P78">
+        <v>-11.9501736</v>
+      </c>
+      <c r="Q78">
+        <v>2.949826399999997</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1924275379425397</v>
+      </c>
+      <c r="T78">
+        <v>3.879820719121604</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0.1837</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.2059776905164734</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1875386091062095</v>
+      </c>
+      <c r="C79">
+        <v>-31.66308794345768</v>
+      </c>
+      <c r="D79">
+        <v>49.59291205654233</v>
+      </c>
+      <c r="E79">
+        <v>50.90600000000001</v>
+      </c>
+      <c r="F79">
+        <v>83.00600000000001</v>
+      </c>
+      <c r="G79">
+        <v>1.75</v>
+      </c>
+      <c r="H79">
+        <v>75.7</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>18</v>
+      </c>
+      <c r="K79">
+        <v>14.9</v>
+      </c>
+      <c r="L79">
+        <v>3.1</v>
+      </c>
+      <c r="M79">
+        <v>15.2482022</v>
+      </c>
+      <c r="N79">
+        <v>-12.1482022</v>
+      </c>
+      <c r="O79">
+        <v>-0</v>
+      </c>
+      <c r="P79">
+        <v>-12.1482022</v>
+      </c>
+      <c r="Q79">
+        <v>2.751797799999997</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2003896048096066</v>
+      </c>
+      <c r="T79">
+        <v>4.048508576474717</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0.1837</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2033026555747011</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1892826091062095</v>
+      </c>
+      <c r="C80">
+        <v>-33.09444916828982</v>
+      </c>
+      <c r="D80">
+        <v>49.2395508317102</v>
+      </c>
+      <c r="E80">
+        <v>51.98400000000002</v>
+      </c>
+      <c r="F80">
+        <v>84.08400000000002</v>
+      </c>
+      <c r="G80">
+        <v>1.75</v>
+      </c>
+      <c r="H80">
+        <v>75.7</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>18</v>
+      </c>
+      <c r="K80">
+        <v>14.9</v>
+      </c>
+      <c r="L80">
+        <v>3.1</v>
+      </c>
+      <c r="M80">
+        <v>15.4462308</v>
+      </c>
+      <c r="N80">
+        <v>-12.3462308</v>
+      </c>
+      <c r="O80">
+        <v>-0</v>
+      </c>
+      <c r="P80">
+        <v>-12.3462308</v>
+      </c>
+      <c r="Q80">
+        <v>2.553769199999996</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2090754959373161</v>
+      </c>
+      <c r="T80">
+        <v>4.232531693587204</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0.1837</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.2006962112724613</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1910266091062095</v>
+      </c>
+      <c r="C81">
+        <v>-34.52081045430723</v>
+      </c>
+      <c r="D81">
+        <v>48.89118954569278</v>
+      </c>
+      <c r="E81">
+        <v>53.062</v>
+      </c>
+      <c r="F81">
+        <v>85.16200000000001</v>
+      </c>
+      <c r="G81">
+        <v>1.75</v>
+      </c>
+      <c r="H81">
+        <v>75.7</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>18</v>
+      </c>
+      <c r="K81">
+        <v>14.9</v>
+      </c>
+      <c r="L81">
+        <v>3.1</v>
+      </c>
+      <c r="M81">
+        <v>15.6442594</v>
+      </c>
+      <c r="N81">
+        <v>-12.5442594</v>
+      </c>
+      <c r="O81">
+        <v>-0</v>
+      </c>
+      <c r="P81">
+        <v>-12.5442594</v>
+      </c>
+      <c r="Q81">
+        <v>2.355740599999999</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.218588614791474</v>
+      </c>
+      <c r="T81">
+        <v>4.434080821853262</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0.1837</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1981557529019239</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1927706091062095</v>
+      </c>
+      <c r="C82">
+        <v>-35.94227717709692</v>
+      </c>
+      <c r="D82">
+        <v>48.54772282290309</v>
+      </c>
+      <c r="E82">
+        <v>54.14000000000001</v>
+      </c>
+      <c r="F82">
+        <v>86.24000000000001</v>
+      </c>
+      <c r="G82">
+        <v>1.75</v>
+      </c>
+      <c r="H82">
+        <v>75.7</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>18</v>
+      </c>
+      <c r="K82">
+        <v>14.9</v>
+      </c>
+      <c r="L82">
+        <v>3.1</v>
+      </c>
+      <c r="M82">
+        <v>15.842288</v>
+      </c>
+      <c r="N82">
+        <v>-12.742288</v>
+      </c>
+      <c r="O82">
+        <v>-0</v>
+      </c>
+      <c r="P82">
+        <v>-12.742288</v>
+      </c>
+      <c r="Q82">
+        <v>2.157711999999998</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2290530455310477</v>
+      </c>
+      <c r="T82">
+        <v>4.655784862945925</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0.1837</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1956788059906498</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1945146091062095</v>
+      </c>
+      <c r="C83">
+        <v>-37.35895177179616</v>
+      </c>
+      <c r="D83">
+        <v>48.20904822820386</v>
+      </c>
+      <c r="E83">
+        <v>55.21800000000001</v>
+      </c>
+      <c r="F83">
+        <v>87.31800000000001</v>
+      </c>
+      <c r="G83">
+        <v>1.75</v>
+      </c>
+      <c r="H83">
+        <v>75.7</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>18</v>
+      </c>
+      <c r="K83">
+        <v>14.9</v>
+      </c>
+      <c r="L83">
+        <v>3.1</v>
+      </c>
+      <c r="M83">
+        <v>16.0403166</v>
+      </c>
+      <c r="N83">
+        <v>-12.9403166</v>
+      </c>
+      <c r="O83">
+        <v>-0</v>
+      </c>
+      <c r="P83">
+        <v>-12.9403166</v>
+      </c>
+      <c r="Q83">
+        <v>1.959683399999996</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2406189952958396</v>
+      </c>
+      <c r="T83">
+        <v>4.900826171522026</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0.1837</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1932630182623701</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1962586091062095</v>
+      </c>
+      <c r="C84">
+        <v>-38.7709338349466</v>
+      </c>
+      <c r="D84">
+        <v>47.87506616505342</v>
+      </c>
+      <c r="E84">
+        <v>56.29600000000001</v>
+      </c>
+      <c r="F84">
+        <v>88.39600000000002</v>
+      </c>
+      <c r="G84">
+        <v>1.75</v>
+      </c>
+      <c r="H84">
+        <v>75.7</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>18</v>
+      </c>
+      <c r="K84">
+        <v>14.9</v>
+      </c>
+      <c r="L84">
+        <v>3.1</v>
+      </c>
+      <c r="M84">
+        <v>16.2383452</v>
+      </c>
+      <c r="N84">
+        <v>-13.1383452</v>
+      </c>
+      <c r="O84">
+        <v>-0</v>
+      </c>
+      <c r="P84">
+        <v>-13.1383452</v>
+      </c>
+      <c r="Q84">
+        <v>1.761654799999999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.253470050590053</v>
+      </c>
+      <c r="T84">
+        <v>5.17309429216214</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0.1837</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1909061521859998</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1980026091062095</v>
+      </c>
+      <c r="C85">
+        <v>-40.1783202221437</v>
+      </c>
+      <c r="D85">
+        <v>47.54567977785632</v>
+      </c>
+      <c r="E85">
+        <v>57.37400000000002</v>
+      </c>
+      <c r="F85">
+        <v>89.47400000000002</v>
+      </c>
+      <c r="G85">
+        <v>1.75</v>
+      </c>
+      <c r="H85">
+        <v>75.7</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>18</v>
+      </c>
+      <c r="K85">
+        <v>14.9</v>
+      </c>
+      <c r="L85">
+        <v>3.1</v>
+      </c>
+      <c r="M85">
+        <v>16.4363738</v>
+      </c>
+      <c r="N85">
+        <v>-13.3363738</v>
+      </c>
+      <c r="O85">
+        <v>-0</v>
+      </c>
+      <c r="P85">
+        <v>-13.3363738</v>
+      </c>
+      <c r="Q85">
+        <v>1.563626199999998</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.267832994742409</v>
+      </c>
+      <c r="T85">
+        <v>5.477393956406972</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0.1837</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1886060780632769</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1997466091062095</v>
+      </c>
+      <c r="C86">
+        <v>-41.58120514168265</v>
+      </c>
+      <c r="D86">
+        <v>47.22079485831735</v>
+      </c>
+      <c r="E86">
+        <v>58.45200000000001</v>
+      </c>
+      <c r="F86">
+        <v>90.55200000000001</v>
+      </c>
+      <c r="G86">
+        <v>1.75</v>
+      </c>
+      <c r="H86">
+        <v>75.7</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>18</v>
+      </c>
+      <c r="K86">
+        <v>14.9</v>
+      </c>
+      <c r="L86">
+        <v>3.1</v>
+      </c>
+      <c r="M86">
+        <v>16.6344024</v>
+      </c>
+      <c r="N86">
+        <v>-13.5344024</v>
+      </c>
+      <c r="O86">
+        <v>-0</v>
+      </c>
+      <c r="P86">
+        <v>-13.5344024</v>
+      </c>
+      <c r="Q86">
+        <v>1.365597599999997</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2839913069138095</v>
+      </c>
+      <c r="T86">
+        <v>5.819731078682405</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0.1837</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1863607676101426</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2014906091062095</v>
+      </c>
+      <c r="C87">
+        <v>-42.97968024439113</v>
+      </c>
+      <c r="D87">
+        <v>46.90031975560888</v>
+      </c>
+      <c r="E87">
+        <v>59.53000000000001</v>
+      </c>
+      <c r="F87">
+        <v>91.63000000000001</v>
+      </c>
+      <c r="G87">
+        <v>1.75</v>
+      </c>
+      <c r="H87">
+        <v>75.7</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>18</v>
+      </c>
+      <c r="K87">
+        <v>14.9</v>
+      </c>
+      <c r="L87">
+        <v>3.1</v>
+      </c>
+      <c r="M87">
+        <v>16.832431</v>
+      </c>
+      <c r="N87">
+        <v>-13.732431</v>
+      </c>
+      <c r="O87">
+        <v>-0</v>
+      </c>
+      <c r="P87">
+        <v>-13.732431</v>
+      </c>
+      <c r="Q87">
+        <v>1.167568999999997</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3023040607080634</v>
+      </c>
+      <c r="T87">
+        <v>6.207713150594565</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0.1837</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1841682879911998</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2032346091062095</v>
+      </c>
+      <c r="C88">
+        <v>-44.37383470982844</v>
+      </c>
+      <c r="D88">
+        <v>46.58416529017158</v>
+      </c>
+      <c r="E88">
+        <v>60.60800000000001</v>
+      </c>
+      <c r="F88">
+        <v>92.70800000000001</v>
+      </c>
+      <c r="G88">
+        <v>1.75</v>
+      </c>
+      <c r="H88">
+        <v>75.7</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>18</v>
+      </c>
+      <c r="K88">
+        <v>14.9</v>
+      </c>
+      <c r="L88">
+        <v>3.1</v>
+      </c>
+      <c r="M88">
+        <v>17.0304596</v>
+      </c>
+      <c r="N88">
+        <v>-13.9304596</v>
+      </c>
+      <c r="O88">
+        <v>-0</v>
+      </c>
+      <c r="P88">
+        <v>-13.9304596</v>
+      </c>
+      <c r="Q88">
+        <v>0.9695403999999961</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3232329221872108</v>
+      </c>
+      <c r="T88">
+        <v>6.651121232779891</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0.1837</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1820267962703719</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2049786091062095</v>
+      </c>
+      <c r="C89">
+        <v>-45.76375532902184</v>
+      </c>
+      <c r="D89">
+        <v>46.27224467097817</v>
+      </c>
+      <c r="E89">
+        <v>61.68600000000001</v>
+      </c>
+      <c r="F89">
+        <v>93.78600000000002</v>
+      </c>
+      <c r="G89">
+        <v>1.75</v>
+      </c>
+      <c r="H89">
+        <v>75.7</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>18</v>
+      </c>
+      <c r="K89">
+        <v>14.9</v>
+      </c>
+      <c r="L89">
+        <v>3.1</v>
+      </c>
+      <c r="M89">
+        <v>17.2284882</v>
+      </c>
+      <c r="N89">
+        <v>-14.1284882</v>
+      </c>
+      <c r="O89">
+        <v>-0</v>
+      </c>
+      <c r="P89">
+        <v>-14.1284882</v>
+      </c>
+      <c r="Q89">
+        <v>0.7715117999999954</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3473816085093039</v>
+      </c>
+      <c r="T89">
+        <v>7.162745942993729</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0.1837</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1799345342442756</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2067226091062095</v>
+      </c>
+      <c r="C90">
+        <v>-47.14952658390084</v>
+      </c>
+      <c r="D90">
+        <v>45.96447341609916</v>
+      </c>
+      <c r="E90">
+        <v>62.764</v>
+      </c>
+      <c r="F90">
+        <v>94.864</v>
+      </c>
+      <c r="G90">
+        <v>1.75</v>
+      </c>
+      <c r="H90">
+        <v>75.7</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>18</v>
+      </c>
+      <c r="K90">
+        <v>14.9</v>
+      </c>
+      <c r="L90">
+        <v>3.1</v>
+      </c>
+      <c r="M90">
+        <v>17.4265168</v>
+      </c>
+      <c r="N90">
+        <v>-14.3265168</v>
+      </c>
+      <c r="O90">
+        <v>-0</v>
+      </c>
+      <c r="P90">
+        <v>-14.3265168</v>
+      </c>
+      <c r="Q90">
+        <v>0.5734831999999983</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3755550758850794</v>
+      </c>
+      <c r="T90">
+        <v>7.759641438243207</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0.1837</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1778898236278634</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2084666091062095</v>
+      </c>
+      <c r="C91">
+        <v>-48.53123072358264</v>
+      </c>
+      <c r="D91">
+        <v>45.66076927641737</v>
+      </c>
+      <c r="E91">
+        <v>63.84200000000001</v>
+      </c>
+      <c r="F91">
+        <v>95.94200000000001</v>
+      </c>
+      <c r="G91">
+        <v>1.75</v>
+      </c>
+      <c r="H91">
+        <v>75.7</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>18</v>
+      </c>
+      <c r="K91">
+        <v>14.9</v>
+      </c>
+      <c r="L91">
+        <v>3.1</v>
+      </c>
+      <c r="M91">
+        <v>17.6245454</v>
+      </c>
+      <c r="N91">
+        <v>-14.5245454</v>
+      </c>
+      <c r="O91">
+        <v>-0</v>
+      </c>
+      <c r="P91">
+        <v>-14.5245454</v>
+      </c>
+      <c r="Q91">
+        <v>0.3754545999999976</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4088509918746321</v>
+      </c>
+      <c r="T91">
+        <v>8.465063387174409</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0.1837</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.175891061564629</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2102106091062095</v>
+      </c>
+      <c r="C92">
+        <v>-49.90894783765277</v>
+      </c>
+      <c r="D92">
+        <v>45.36105216234724</v>
+      </c>
+      <c r="E92">
+        <v>64.92000000000002</v>
+      </c>
+      <c r="F92">
+        <v>97.02000000000001</v>
+      </c>
+      <c r="G92">
+        <v>1.75</v>
+      </c>
+      <c r="H92">
+        <v>75.7</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>18</v>
+      </c>
+      <c r="K92">
+        <v>14.9</v>
+      </c>
+      <c r="L92">
+        <v>3.1</v>
+      </c>
+      <c r="M92">
+        <v>17.822574</v>
+      </c>
+      <c r="N92">
+        <v>-14.722574</v>
+      </c>
+      <c r="O92">
+        <v>-0</v>
+      </c>
+      <c r="P92">
+        <v>-14.722574</v>
+      </c>
+      <c r="Q92">
+        <v>0.177425999999997</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4488060910620953</v>
+      </c>
+      <c r="T92">
+        <v>9.31156972589185</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0.1837</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1739367164361332</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2119546091062095</v>
+      </c>
+      <c r="C93">
+        <v>-51.28275592657884</v>
+      </c>
+      <c r="D93">
+        <v>45.06524407342118</v>
+      </c>
+      <c r="E93">
+        <v>65.99800000000002</v>
+      </c>
+      <c r="F93">
+        <v>98.09800000000001</v>
+      </c>
+      <c r="G93">
+        <v>1.75</v>
+      </c>
+      <c r="H93">
+        <v>75.7</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>18</v>
+      </c>
+      <c r="K93">
+        <v>14.9</v>
+      </c>
+      <c r="L93">
+        <v>3.1</v>
+      </c>
+      <c r="M93">
+        <v>18.0206026</v>
+      </c>
+      <c r="N93">
+        <v>-14.9206026</v>
+      </c>
+      <c r="O93">
+        <v>-0</v>
+      </c>
+      <c r="P93">
+        <v>-14.9206026</v>
+      </c>
+      <c r="Q93">
+        <v>-0.02060260000000369</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4976401011801059</v>
+      </c>
+      <c r="T93">
+        <v>10.34618858432428</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0.1837</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.172025323947824</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2136986091062095</v>
+      </c>
+      <c r="C94">
+        <v>-52.65273096938689</v>
+      </c>
+      <c r="D94">
+        <v>44.77326903061313</v>
+      </c>
+      <c r="E94">
+        <v>67.07600000000002</v>
+      </c>
+      <c r="F94">
+        <v>99.17600000000002</v>
+      </c>
+      <c r="G94">
+        <v>1.75</v>
+      </c>
+      <c r="H94">
+        <v>75.7</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>18</v>
+      </c>
+      <c r="K94">
+        <v>14.9</v>
+      </c>
+      <c r="L94">
+        <v>3.1</v>
+      </c>
+      <c r="M94">
+        <v>18.2186312</v>
+      </c>
+      <c r="N94">
+        <v>-15.1186312</v>
+      </c>
+      <c r="O94">
+        <v>-0</v>
+      </c>
+      <c r="P94">
+        <v>-15.1186312</v>
+      </c>
+      <c r="Q94">
+        <v>-0.2186312000000044</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5586826138276193</v>
+      </c>
+      <c r="T94">
+        <v>11.63946215736482</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0.1837</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1701554834701302</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2154426091062095</v>
+      </c>
+      <c r="C95">
+        <v>-54.01894698872374</v>
+      </c>
+      <c r="D95">
+        <v>44.48505301127628</v>
+      </c>
+      <c r="E95">
+        <v>68.15400000000002</v>
+      </c>
+      <c r="F95">
+        <v>100.254</v>
+      </c>
+      <c r="G95">
+        <v>1.75</v>
+      </c>
+      <c r="H95">
+        <v>75.7</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>18</v>
+      </c>
+      <c r="K95">
+        <v>14.9</v>
+      </c>
+      <c r="L95">
+        <v>3.1</v>
+      </c>
+      <c r="M95">
+        <v>18.41665980000001</v>
+      </c>
+      <c r="N95">
+        <v>-15.31665980000001</v>
+      </c>
+      <c r="O95">
+        <v>-0</v>
+      </c>
+      <c r="P95">
+        <v>-15.31665980000001</v>
+      </c>
+      <c r="Q95">
+        <v>-0.416659800000005</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6371658443744221</v>
+      </c>
+      <c r="T95">
+        <v>13.30224246555979</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0.1837</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1683258546156127</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2171866091062095</v>
+      </c>
+      <c r="C96">
+        <v>-55.38147611342273</v>
+      </c>
+      <c r="D96">
+        <v>44.20052388657729</v>
+      </c>
+      <c r="E96">
+        <v>69.23200000000003</v>
+      </c>
+      <c r="F96">
+        <v>101.332</v>
+      </c>
+      <c r="G96">
+        <v>1.75</v>
+      </c>
+      <c r="H96">
+        <v>75.7</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>18</v>
+      </c>
+      <c r="K96">
+        <v>14.9</v>
+      </c>
+      <c r="L96">
+        <v>3.1</v>
+      </c>
+      <c r="M96">
+        <v>18.61468840000001</v>
+      </c>
+      <c r="N96">
+        <v>-15.51468840000001</v>
+      </c>
+      <c r="O96">
+        <v>-0</v>
+      </c>
+      <c r="P96">
+        <v>-15.51468840000001</v>
+      </c>
+      <c r="Q96">
+        <v>-0.6146884000000057</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7418101517701594</v>
+      </c>
+      <c r="T96">
+        <v>15.51928287648643</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0.1837</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1665351540345955</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2189306091062095</v>
+      </c>
+      <c r="C97">
+        <v>-56.74038863868348</v>
+      </c>
+      <c r="D97">
+        <v>43.91961136131655</v>
+      </c>
+      <c r="E97">
+        <v>70.31000000000003</v>
+      </c>
+      <c r="F97">
+        <v>102.41</v>
+      </c>
+      <c r="G97">
+        <v>1.75</v>
+      </c>
+      <c r="H97">
+        <v>75.7</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>18</v>
+      </c>
+      <c r="K97">
+        <v>14.9</v>
+      </c>
+      <c r="L97">
+        <v>3.1</v>
+      </c>
+      <c r="M97">
+        <v>18.81271700000001</v>
+      </c>
+      <c r="N97">
+        <v>-15.71271700000001</v>
+      </c>
+      <c r="O97">
+        <v>-0</v>
+      </c>
+      <c r="P97">
+        <v>-15.71271700000001</v>
+      </c>
+      <c r="Q97">
+        <v>-0.8127170000000064</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8883121821241916</v>
+      </c>
+      <c r="T97">
+        <v>18.62313945178372</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0.1837</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1647821524131787</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2206746091062095</v>
+      </c>
+      <c r="C98">
+        <v>-58.09575308397133</v>
+      </c>
+      <c r="D98">
+        <v>43.64224691602868</v>
+      </c>
+      <c r="E98">
+        <v>71.38800000000001</v>
+      </c>
+      <c r="F98">
+        <v>103.488</v>
+      </c>
+      <c r="G98">
+        <v>1.75</v>
+      </c>
+      <c r="H98">
+        <v>75.7</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>18</v>
+      </c>
+      <c r="K98">
+        <v>14.9</v>
+      </c>
+      <c r="L98">
+        <v>3.1</v>
+      </c>
+      <c r="M98">
+        <v>19.0107456</v>
+      </c>
+      <c r="N98">
+        <v>-15.9107456</v>
+      </c>
+      <c r="O98">
+        <v>-0</v>
+      </c>
+      <c r="P98">
+        <v>-15.9107456</v>
+      </c>
+      <c r="Q98">
+        <v>-1.010745600000003</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.108065227655237</v>
+      </c>
+      <c r="T98">
+        <v>23.2789243147296</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0.1837</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1630656716588749</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2224186091062095</v>
+      </c>
+      <c r="C99">
+        <v>-59.44763624873691</v>
+      </c>
+      <c r="D99">
+        <v>43.36836375126309</v>
+      </c>
+      <c r="E99">
+        <v>72.46600000000001</v>
+      </c>
+      <c r="F99">
+        <v>104.566</v>
+      </c>
+      <c r="G99">
+        <v>1.75</v>
+      </c>
+      <c r="H99">
+        <v>75.7</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>18</v>
+      </c>
+      <c r="K99">
+        <v>14.9</v>
+      </c>
+      <c r="L99">
+        <v>3.1</v>
+      </c>
+      <c r="M99">
+        <v>19.2087742</v>
+      </c>
+      <c r="N99">
+        <v>-16.1087742</v>
+      </c>
+      <c r="O99">
+        <v>-0</v>
+      </c>
+      <c r="P99">
+        <v>-16.1087742</v>
+      </c>
+      <c r="Q99">
+        <v>-1.208774199999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.474320303540317</v>
+      </c>
+      <c r="T99">
+        <v>31.0385657529728</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0.1837</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1613845822603298</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2241626091062095</v>
+      </c>
+      <c r="C100">
+        <v>-60.79610326605034</v>
+      </c>
+      <c r="D100">
+        <v>43.09789673394966</v>
+      </c>
+      <c r="E100">
+        <v>73.54400000000001</v>
+      </c>
+      <c r="F100">
+        <v>105.644</v>
+      </c>
+      <c r="G100">
+        <v>1.75</v>
+      </c>
+      <c r="H100">
+        <v>75.7</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>18</v>
+      </c>
+      <c r="K100">
+        <v>14.9</v>
+      </c>
+      <c r="L100">
+        <v>3.1</v>
+      </c>
+      <c r="M100">
+        <v>19.4068028</v>
+      </c>
+      <c r="N100">
+        <v>-16.3068028</v>
+      </c>
+      <c r="O100">
+        <v>-0</v>
+      </c>
+      <c r="P100">
+        <v>-16.3068028</v>
+      </c>
+      <c r="Q100">
+        <v>-1.406802799999999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.206830455310474</v>
+      </c>
+      <c r="T100">
+        <v>46.5578486294592</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0.1837</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1597378008086938</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2259066091062095</v>
+      </c>
+      <c r="C101">
+        <v>-62.14121765424122</v>
+      </c>
+      <c r="D101">
+        <v>42.83078234575878</v>
+      </c>
+      <c r="E101">
+        <v>74.62200000000001</v>
+      </c>
+      <c r="F101">
+        <v>106.722</v>
+      </c>
+      <c r="G101">
+        <v>1.75</v>
+      </c>
+      <c r="H101">
+        <v>75.7</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>18</v>
+      </c>
+      <c r="K101">
+        <v>14.9</v>
+      </c>
+      <c r="L101">
+        <v>3.1</v>
+      </c>
+      <c r="M101">
+        <v>19.6048314</v>
+      </c>
+      <c r="N101">
+        <v>-16.5048314</v>
+      </c>
+      <c r="O101">
+        <v>-0</v>
+      </c>
+      <c r="P101">
+        <v>-16.5048314</v>
+      </c>
+      <c r="Q101">
+        <v>-1.6048314</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.404360910620948</v>
+      </c>
+      <c r="T101">
+        <v>93.1156972589184</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0.1837</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.158124287669212</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
